--- a/jacobi/src/test/resources/jacobi/test/data/FrancisQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="585" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="3675" yWindow="1125" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="6x6" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>#0</t>
   </si>
@@ -40,21 +40,6 @@
   </si>
   <si>
     <t>1st column=</t>
-  </si>
-  <si>
-    <t>norm=</t>
-  </si>
-  <si>
-    <t>refl=</t>
-  </si>
-  <si>
-    <t>v=</t>
-  </si>
-  <si>
-    <t>v*v^t=</t>
-  </si>
-  <si>
-    <t>H=</t>
   </si>
   <si>
     <t>#1</t>
@@ -96,9 +81,6 @@
     <t>C=G4*G3*B*G3^t*G4^t=</t>
   </si>
   <si>
-    <t>#2</t>
-  </si>
-  <si>
     <t>G5=</t>
   </si>
   <si>
@@ -111,9 +93,6 @@
     <t>D=G6*G5*C*G5^t*G6^=</t>
   </si>
   <si>
-    <t>#3</t>
-  </si>
-  <si>
     <t>G7=</t>
   </si>
   <si>
@@ -121,12 +100,6 @@
   </si>
   <si>
     <t>E=G7*D*G7^t=</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#5</t>
   </si>
   <si>
     <t>#10</t>
@@ -139,6 +112,9 @@
   </si>
   <si>
     <t>Delta=</t>
+  </si>
+  <si>
+    <t>G2*G1*A=</t>
   </si>
 </sst>
 </file>
@@ -494,11 +470,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1056,24 +1036,115 @@
         <v>-0.37362640239272321</v>
       </c>
     </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <f>SQRT(H19*H19+H20*H20)</f>
+        <v>0.58857118732922897</v>
       </c>
       <c r="L18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <f>H19/K18</f>
+        <v>-0.99980874511379247</v>
+      </c>
+      <c r="O18">
+        <f>M18</f>
+        <v>-0.99980874511379247</v>
+      </c>
+      <c r="P18">
+        <f>M19</f>
+        <v>-1.9556921894402408E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>M21</f>
+        <v>0.99972659560868415</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>M22</f>
+        <v>-2.3382344464800781E-2</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="array" ref="AC18:AH23">MMULT(V18:AA23,MMULT(O18:T23,A3:F8))</f>
+        <v>-0.51034818200881316</v>
+      </c>
+      <c r="AD18">
+        <v>-0.57259183168356442</v>
+      </c>
+      <c r="AE18">
+        <v>0.47717402604450054</v>
+      </c>
+      <c r="AF18">
+        <v>-0.61563624153911767</v>
+      </c>
+      <c r="AG18">
+        <v>-1.0947164338074673</v>
+      </c>
+      <c r="AH18">
+        <v>9.648510874296784E-2</v>
+      </c>
+      <c r="AJ18">
+        <f t="array" ref="AJ18:AO23">MMULT(TRANSPOSE(O18:T23),TRANSPOSE(V18:AA23))</f>
+        <v>-0.99953539301240235</v>
+      </c>
+      <c r="AK18">
+        <v>1.9556921894402408E-2</v>
+      </c>
+      <c r="AL18">
+        <v>-2.3377872477170901E-2</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
@@ -1105,255 +1176,447 @@
         <f>A19</f>
         <v>-0.58845862021377127</v>
       </c>
-      <c r="J19">
-        <f>SQRT(SUMPRODUCT(H19:H21,H19:H21))</f>
-        <v>0.58873214928415218</v>
-      </c>
-      <c r="K19">
-        <f>H19-J19</f>
-        <v>-1.1771907694979236</v>
-      </c>
-      <c r="L19">
-        <f>K19/(SQRT(SUMPRODUCT(K$19:K$21,K$19:K$21)))</f>
-        <v>-0.99988384150670284</v>
-      </c>
-      <c r="N19">
-        <f t="array" ref="N19:P21">MMULT(L19:L21,TRANSPOSE(L19:L21))</f>
-        <v>0.99976769650620123</v>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <f>H20/K18</f>
+        <v>-1.9556921894402408E-2</v>
       </c>
       <c r="O19">
-        <v>9.7757874730379293E-3</v>
+        <f>-P18</f>
+        <v>1.9556921894402408E-2</v>
       </c>
       <c r="P19">
-        <v>1.1691172232400389E-2</v>
+        <f>O18</f>
+        <v>-0.99980874511379247</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
       </c>
       <c r="R19">
-        <f>1-2*N19</f>
-        <v>-0.99953539301240246</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:T20" si="8">-2*O19</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>2.9531022364082043E-2</v>
+      </c>
+      <c r="AD19">
+        <v>-0.97823776505315407</v>
+      </c>
+      <c r="AE19">
+        <v>-0.45916658989192344</v>
+      </c>
+      <c r="AF19">
+        <v>1.2700267562544946E-2</v>
+      </c>
+      <c r="AG19">
+        <v>-0.36167930119908309</v>
+      </c>
+      <c r="AH19">
+        <v>-1.037277121634518</v>
+      </c>
+      <c r="AJ19">
         <v>-1.9551574946075859E-2</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="8"/>
-        <v>-2.3382344464800777E-2</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
+      <c r="AK19">
+        <v>-0.99980874511379247</v>
+      </c>
+      <c r="AL19">
+        <v>-4.5728668440612135E-4</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" ref="A20:A24" si="9">A12-H12+O12</f>
+        <f t="shared" ref="A20:A24" si="8">A12-H12+O12</f>
         <v>-1.151064073989342E-2</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:B24" si="10">B12-I12+P12</f>
+        <f t="shared" ref="B20:B24" si="9">B12-I12+P12</f>
         <v>9.7619474348321078E-3</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C24" si="11">C12-J12+Q12</f>
+        <f t="shared" ref="C20:C24" si="10">C12-J12+Q12</f>
         <v>0.2225669514424512</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D24" si="12">D12-K12+R12</f>
+        <f t="shared" ref="D20:D24" si="11">D12-K12+R12</f>
         <v>0.6538778803501506</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E24" si="13">E12-L12+S12</f>
+        <f t="shared" ref="E20:E24" si="12">E12-L12+S12</f>
         <v>0.5913376372523288</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F24" si="14">F12-M12+T12</f>
+        <f t="shared" ref="F20:F24" si="13">F12-M12+T12</f>
         <v>1.7799689409161696</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H21" si="15">A20</f>
+        <f t="shared" ref="H20:H21" si="14">A20</f>
         <v>-1.151064073989342E-2</v>
       </c>
-      <c r="K20">
-        <f>H20</f>
-        <v>-1.151064073989342E-2</v>
-      </c>
-      <c r="L20">
-        <f>K20/(SQRT(SUMPRODUCT(K$19:K$21,K$19:K$21)))</f>
-        <v>-9.7769231456996154E-3</v>
-      </c>
-      <c r="N20">
-        <v>9.7757874730379293E-3</v>
-      </c>
       <c r="O20">
-        <v>9.5588226196916863E-5</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.1431697128645893E-4</v>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
       </c>
       <c r="R20">
-        <f t="shared" ref="R20:S21" si="16">-2*N20</f>
-        <v>-1.9551574946075859E-2</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <f>1-2*O20</f>
-        <v>0.99980882354760614</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="8"/>
-        <v>-2.2863394257291786E-4</v>
-      </c>
-      <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <f>-X18</f>
+        <v>2.3382344464800781E-2</v>
       </c>
       <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>V18</f>
+        <v>0.99972659560868415</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>-1.1936400453015273E-2</v>
+      </c>
+      <c r="AD20">
+        <v>0.69123576868289571</v>
+      </c>
+      <c r="AE20">
+        <v>0.4065885246365431</v>
+      </c>
+      <c r="AF20">
+        <v>0.57540854128499519</v>
+      </c>
+      <c r="AG20">
+        <v>0.26507213542891678</v>
+      </c>
+      <c r="AH20">
+        <v>0.94774954853930859</v>
+      </c>
+      <c r="AJ20">
+        <v>-2.3382344464800781E-2</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0.99972659560868415</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="8"/>
+        <v>-1.376593791206456E-2</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="9"/>
+        <v>0.33346470238842341</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="10"/>
+        <v>-0.30634778299170506</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="11"/>
+        <v>0.14551632670124204</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="12"/>
+        <v>0.23738295440091978</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="13"/>
+        <v>1.6813460238724938</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="14"/>
         <v>-1.376593791206456E-2</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="10"/>
-        <v>0.33346470238842341</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="11"/>
-        <v>-0.30634778299170506</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="12"/>
-        <v>0.14551632670124204</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="13"/>
-        <v>0.23738295440091978</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="14"/>
-        <v>1.6813460238724938</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="15"/>
-        <v>-1.376593791206456E-2</v>
+      <c r="J21" t="s">
+        <v>14</v>
       </c>
       <c r="K21">
-        <f>H21</f>
-        <v>-1.376593791206456E-2</v>
-      </c>
-      <c r="L21">
-        <f>K21/(SQRT(SUMPRODUCT(K$19:K$21,K$19:K$21)))</f>
-        <v>-1.1692530419116704E-2</v>
-      </c>
-      <c r="N21">
-        <v>1.1691172232400389E-2</v>
+        <f>SQRT(K18*K18+H21*H21)</f>
+        <v>0.58873214928415207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <f>K18/K21</f>
+        <v>0.99972659560868415</v>
       </c>
       <c r="O21">
-        <v>1.1431697128645893E-4</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.3671526760196945E-4</v>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="16"/>
-        <v>-2.3382344464800777E-2</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <f t="shared" si="16"/>
-        <v>-2.2863394257291786E-4</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <f>1-2*P21</f>
-        <v>0.9997265694647961</v>
-      </c>
-      <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>-7.7338123170088702E-2</v>
+      </c>
+      <c r="AF21">
+        <v>0.24747879495404601</v>
+      </c>
+      <c r="AG21">
+        <v>-0.49643848147861558</v>
+      </c>
+      <c r="AH21">
+        <v>0.5675150086398324</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B22">
+        <v>-5.447970563899162E-2</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="10"/>
-        <v>-5.447970563899162E-2</v>
-      </c>
-      <c r="C22">
+        <v>2.0732194630074259E-2</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="11"/>
-        <v>2.0732194630074259E-2</v>
-      </c>
-      <c r="D22">
+        <v>-1.1031416274151553</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="12"/>
-        <v>-1.1031416274151553</v>
-      </c>
-      <c r="E22">
+        <v>0.52806263258990127</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="13"/>
-        <v>0.52806263258990127</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="14"/>
         <v>-0.43127524892660551</v>
       </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <f>H21/K21</f>
+        <v>-2.3382344464800781E-2</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>1</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1.0469326002216011</v>
+      </c>
+      <c r="AG22">
+        <v>3.7380917944841663E-2</v>
+      </c>
+      <c r="AH22">
+        <v>0.9616625467102935</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C23">
+        <v>-8.0967802386719412E-2</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="11"/>
-        <v>-8.0967802386719412E-2</v>
-      </c>
-      <c r="D23">
+        <v>-0.65539144553880968</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="12"/>
-        <v>-0.65539144553880968</v>
-      </c>
-      <c r="E23">
+        <v>-0.51973763026447017</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="13"/>
-        <v>-0.51973763026447017</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="14"/>
         <v>0.5941499636600841</v>
       </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -1361,65 +1624,92 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
         <v>1</v>
       </c>
-      <c r="W23">
-        <v>0</v>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0.4224748675853458</v>
+      </c>
+      <c r="AH23">
+        <v>0.87348991104698737</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D24">
+        <v>0.44230271164940266</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="12"/>
-        <v>0.44230271164940266</v>
-      </c>
-      <c r="E24">
+        <v>5.5511151231257827E-17</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="13"/>
-        <v>5.5511151231257827E-17</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
@@ -1430,31 +1720,31 @@
         <v>6</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="array" ref="A28:F33">MMULT(MMULT(R19:W24,A3:F8),TRANSPOSE(R19:W24))</f>
+        <f t="array" ref="A28:F33">MMULT(MMULT(AC18:AH23,TRANSPOSE(O18:T23)),TRANSPOSE(V18:AA23))</f>
         <v>0.51014869534138796</v>
       </c>
       <c r="B28">
-        <v>-0.56261335305824256</v>
+        <v>0.56250148116345589</v>
       </c>
       <c r="C28">
-        <v>0.48910760301185163</v>
+        <v>0.48923625790854475</v>
       </c>
       <c r="D28">
         <v>-0.61563624153911767</v>
@@ -1463,21 +1753,21 @@
         <v>-1.0947164338074673</v>
       </c>
       <c r="F28">
-        <v>9.6485108742967854E-2</v>
+        <v>9.648510874296784E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I28">
         <f>SQRT(A29*A29+A30*A30)</f>
         <v>1.109625629739971E-2</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K28">
         <f>A29/I28</f>
-        <v>-3.0879049712261051E-2</v>
+        <v>3.1107636315092464E-2</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1520,10 +1810,10 @@
         <v>0.51014869534138796</v>
       </c>
       <c r="AB28">
-        <v>-0.56261335305824256</v>
+        <v>0.56250148116345589</v>
       </c>
       <c r="AC28">
-        <v>0.48910760301185163</v>
+        <v>0.48923625790854475</v>
       </c>
       <c r="AD28">
         <v>-0.61563624153911767</v>
@@ -1532,39 +1822,39 @@
         <v>-1.0947164338074673</v>
       </c>
       <c r="AF28">
-        <v>9.6485108742967854E-2</v>
+        <v>9.648510874296784E-2</v>
       </c>
       <c r="AH28">
         <f t="array" ref="AH28:AM33">MMULT(MMULT(AA28:AF33,TRANSPOSE(M28:R33)),TRANSPOSE(T28:Y33))</f>
         <v>0.51014869534138796</v>
       </c>
       <c r="AI28">
-        <v>-0.56438544435730953</v>
+        <v>-0.5643854443573092</v>
       </c>
       <c r="AJ28">
-        <v>-0.57744823673961132</v>
+        <v>0.57744823673961154</v>
       </c>
       <c r="AK28">
-        <v>-0.53178061110176289</v>
+        <v>-0.531780611101763</v>
       </c>
       <c r="AL28">
         <v>-1.0947164338074673</v>
       </c>
       <c r="AM28">
-        <v>9.6485108742967854E-2</v>
+        <v>9.648510874296784E-2</v>
       </c>
       <c r="AO28">
-        <f t="array" ref="AO28:AT33">MMULT(MMULT(TRANSPOSE(R19:W24),TRANSPOSE(M28:R33)),TRANSPOSE(T28:Y33))</f>
-        <v>-0.99953539301240246</v>
+        <f t="array" ref="AO28:AT33">MMULT(MMULT(AJ18:AO23,TRANSPOSE(M28:R33)),TRANSPOSE(T28:Y33))</f>
+        <v>-0.99953539301240235</v>
       </c>
       <c r="AP28">
-        <v>2.3662758629527287E-2</v>
+        <v>2.3662758629527301E-2</v>
       </c>
       <c r="AQ28">
-        <v>-1.8820226778936376E-2</v>
+        <v>1.8820226778936362E-2</v>
       </c>
       <c r="AR28">
-        <v>-3.856297910270731E-3</v>
+        <v>-3.8562979102707332E-3</v>
       </c>
       <c r="AS28">
         <v>0</v>
@@ -1575,40 +1865,40 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-3.4264184982739539E-4</v>
+        <v>3.4517830535856463E-4</v>
       </c>
       <c r="B29">
-        <v>0.97836503529705587</v>
+        <v>0.97862820819855112</v>
       </c>
       <c r="C29">
-        <v>0.45941488626800991</v>
+        <v>-0.45928408910070745</v>
       </c>
       <c r="D29">
-        <v>-1.2831861132154494E-2</v>
+        <v>1.2700267562544946E-2</v>
       </c>
       <c r="E29">
-        <v>0.36161867067934017</v>
+        <v>-0.36167930119908309</v>
       </c>
       <c r="F29">
-        <v>1.0370603475332154</v>
+        <v>-1.037277121634518</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K29">
         <f>A30/I28</f>
-        <v>-0.99952312844119195</v>
+        <v>-0.99951604037298347</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
         <f>K28</f>
-        <v>-3.0879049712261051E-2</v>
+        <v>3.1107636315092464E-2</v>
       </c>
       <c r="O29">
         <f>K29</f>
-        <v>-0.99952312844119195</v>
+        <v>-0.99951604037298347</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -1640,52 +1930,52 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>1.1242642988831675E-2</v>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="AB29">
-        <v>-0.71195375553094409</v>
+        <v>0.71205153994369208</v>
       </c>
       <c r="AC29">
-        <v>-0.42765431151084693</v>
+        <v>-0.4274914790171252</v>
       </c>
       <c r="AD29">
-        <v>-0.52744531050370014</v>
+        <v>-0.52744531050370003</v>
       </c>
       <c r="AE29">
-        <v>-0.35244929397890368</v>
+        <v>-0.35244929397890379</v>
       </c>
       <c r="AF29">
-        <v>-0.87552046795856309</v>
+        <v>-0.87552046795856353</v>
       </c>
       <c r="AH29">
-        <v>1.1242642988831675E-2</v>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="AI29">
-        <v>0.35874483623315689</v>
+        <v>0.35874483623315734</v>
       </c>
       <c r="AJ29">
-        <v>-0.6984086862889386</v>
+        <v>0.69840868628893871</v>
       </c>
       <c r="AK29">
         <v>-0.5928679154187555</v>
       </c>
       <c r="AL29">
-        <v>-0.35244929397890368</v>
+        <v>-0.35244929397890379</v>
       </c>
       <c r="AM29">
-        <v>-0.87552046795856309</v>
+        <v>-0.87552046795856353</v>
       </c>
       <c r="AO29">
         <v>-1.9551574946075859E-2</v>
       </c>
       <c r="AP29">
-        <v>-3.0245608092405226E-2</v>
+        <v>-3.0245608092405719E-2</v>
       </c>
       <c r="AQ29">
-        <v>0.99933910315428953</v>
+        <v>-0.99933910315428953</v>
       </c>
       <c r="AR29">
-        <v>4.9290988049071702E-3</v>
+        <v>4.92909880490725E-3</v>
       </c>
       <c r="AS29">
         <v>0</v>
@@ -1696,33 +1986,33 @@
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-1.1090964808362235E-2</v>
+        <v>-1.1090886157340741E-2</v>
       </c>
       <c r="B30">
-        <v>0.69146780288327592</v>
+        <v>-0.69133700571597356</v>
       </c>
       <c r="C30">
-        <v>0.40670348918476673</v>
+        <v>0.40644031628327193</v>
       </c>
       <c r="D30">
-        <v>0.57540562173111531</v>
+        <v>0.57540854128499519</v>
       </c>
       <c r="E30">
-        <v>0.26515484327616934</v>
+        <v>0.26507213542891678</v>
       </c>
       <c r="F30">
-        <v>0.94798674536996563</v>
+        <v>0.94774954853930859</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
         <f>-O29</f>
-        <v>0.99952312844119195</v>
+        <v>0.99951604037298347</v>
       </c>
       <c r="O30">
         <f>N29</f>
-        <v>-3.0879049712261051E-2</v>
+        <v>3.1107636315092464E-2</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -1752,52 +2042,52 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>-5.4210108624275222E-20</v>
       </c>
       <c r="AB30">
-        <v>0.9565466121779298</v>
+        <v>0.95664873151094598</v>
       </c>
       <c r="AC30">
-        <v>0.44663718711436928</v>
+        <v>-0.44641841660152043</v>
       </c>
       <c r="AD30">
-        <v>-3.0593720780683585E-2</v>
+        <v>3.0593720780683866E-2</v>
       </c>
       <c r="AE30">
-        <v>0.3532584954331876</v>
+        <v>-0.35325849543318749</v>
       </c>
       <c r="AF30">
-        <v>1.0072928731118655</v>
+        <v>-1.0072928731118651</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>-5.4210108624275222E-20</v>
       </c>
       <c r="AI30">
-        <v>-0.47468502578965716</v>
+        <v>0.47468502578965727</v>
       </c>
       <c r="AJ30">
-        <v>0.94229873039965883</v>
+        <v>0.94229873039965861</v>
       </c>
       <c r="AK30">
-        <v>4.6361653464696347E-2</v>
+        <v>-4.6361653464696083E-2</v>
       </c>
       <c r="AL30">
-        <v>0.3532584954331876</v>
+        <v>-0.35325849543318749</v>
       </c>
       <c r="AM30">
-        <v>1.0072928731118655</v>
+        <v>-1.0072928731118651</v>
       </c>
       <c r="AO30">
-        <v>-2.3382344464800777E-2</v>
+        <v>-2.3382344464800781E-2</v>
       </c>
       <c r="AP30">
-        <v>-0.98623196266005198</v>
+        <v>-0.98623196266005186</v>
       </c>
       <c r="AQ30">
-        <v>-3.1099131350719969E-2</v>
+        <v>3.1099131350720462E-2</v>
       </c>
       <c r="AR30">
-        <v>0.16072531170995327</v>
+        <v>0.16072531170995324</v>
       </c>
       <c r="AS30">
         <v>0</v>
@@ -1808,13 +2098,13 @@
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1.8083466362242044E-3</v>
+        <v>1.8083466362242046E-3</v>
       </c>
       <c r="B31">
-        <v>1.7682120011567308E-5</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>-7.7316976565678638E-2</v>
+        <v>-7.7316978587597868E-2</v>
       </c>
       <c r="D31">
         <v>0.24747879495404601</v>
@@ -1826,14 +2116,14 @@
         <v>0.5675150086398324</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I31">
         <f>SQRT(I28*I28+A31*A31)</f>
         <v>1.124264298883168E-2</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K31">
         <f>I28/I31</f>
@@ -1879,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>2.1684043449710089E-19</v>
+        <v>8.6736173798840355E-19</v>
       </c>
       <c r="AB31">
-        <v>0.11604436110816015</v>
+        <v>-0.11604238155324371</v>
       </c>
       <c r="AC31">
-        <v>-8.6425481032594009E-3</v>
+        <v>-8.6690868129028209E-3</v>
       </c>
       <c r="AD31">
         <v>0.33670091892990389</v>
@@ -1894,25 +2184,25 @@
         <v>-0.44554938039183661</v>
       </c>
       <c r="AF31">
-        <v>0.71768467784813683</v>
+        <v>0.71768467784813694</v>
       </c>
       <c r="AH31">
-        <v>2.1684043449710089E-19</v>
+        <v>8.6736173798840355E-19</v>
       </c>
       <c r="AI31">
-        <v>5.914663635025575E-2</v>
+        <v>5.9146636350255646E-2</v>
       </c>
       <c r="AJ31">
-        <v>0.11625589652530877</v>
+        <v>-0.11625589652530884</v>
       </c>
       <c r="AK31">
-        <v>0.33150375280305228</v>
+        <v>0.33150375280305233</v>
       </c>
       <c r="AL31">
         <v>-0.44554938039183661</v>
       </c>
       <c r="AM31">
-        <v>0.71768467784813683</v>
+        <v>0.71768467784813694</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -1953,7 +2243,7 @@
         <v>0.9616625467102935</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K32">
         <f>A31/I31</f>
@@ -2160,11 +2450,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
@@ -2173,56 +2458,56 @@
         <v>6</v>
       </c>
       <c r="M36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AA36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AH36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f>AA28</f>
+      <c r="A37">
+        <f>AH28</f>
         <v>0.51014869534138796</v>
       </c>
-      <c r="B37" s="1">
-        <f t="shared" ref="B37:F38" si="17">AB28</f>
-        <v>-0.56261335305824256</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="17"/>
-        <v>0.48910760301185163</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.61563624153911767</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="17"/>
+      <c r="B37">
+        <f t="shared" ref="B37:F37" si="15">AI28</f>
+        <v>-0.5643854443573092</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="15"/>
+        <v>0.57744823673961154</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="15"/>
+        <v>-0.531780611101763</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="15"/>
         <v>-1.0947164338074673</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="17"/>
-        <v>9.6485108742967854E-2</v>
+      <c r="F37">
+        <f t="shared" si="15"/>
+        <v>9.648510874296784E-2</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I37">
         <f>SQRT(B39*B39+B40*B40)</f>
-        <v>0.47835572359957906</v>
+        <v>0.47835572359957917</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K37">
         <f>B39/I37</f>
-        <v>-0.99232642648801128</v>
+        <v>0.99232642648801128</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2265,90 +2550,90 @@
         <v>0.51014869534138796</v>
       </c>
       <c r="AB37" s="1">
-        <v>-0.56438544435730953</v>
+        <v>-0.5643854443573092</v>
       </c>
       <c r="AC37" s="1">
-        <v>-0.57744823673961132</v>
+        <v>0.57744823673961154</v>
       </c>
       <c r="AD37" s="1">
-        <v>-0.53178061110176289</v>
+        <v>-0.531780611101763</v>
       </c>
       <c r="AE37" s="1">
         <v>-1.0947164338074673</v>
       </c>
       <c r="AF37" s="1">
-        <v>9.6485108742967854E-2</v>
+        <v>9.648510874296784E-2</v>
       </c>
       <c r="AH37">
         <f t="array" ref="AH37:AM42">MMULT(MMULT(AA37:AF42,TRANSPOSE(M37:R42)), TRANSPOSE(T37:Y42))</f>
         <v>0.51014869534138796</v>
       </c>
       <c r="AI37">
-        <v>-0.56438544435730953</v>
+        <v>-0.5643854443573092</v>
       </c>
       <c r="AJ37">
-        <v>0.11497440223506855</v>
+        <v>0.114974402235069</v>
       </c>
       <c r="AK37">
-        <v>0.59909895466141827</v>
+        <v>-0.59909895466141827</v>
       </c>
       <c r="AL37">
         <v>-1.2010422491569039</v>
       </c>
       <c r="AM37">
-        <v>9.6485108742967854E-2</v>
+        <v>9.648510874296784E-2</v>
       </c>
       <c r="AO37">
         <f t="array" ref="AO37:AT42">MMULT(MMULT(AO28:AT33,TRANSPOSE(M37:R42)),TRANSPOSE(T37:Y42))</f>
-        <v>-0.99953539301240246</v>
+        <v>-0.99953539301240235</v>
       </c>
       <c r="AP37">
-        <v>2.3662758629527287E-2</v>
+        <v>2.3662758629527301E-2</v>
       </c>
       <c r="AQ37">
-        <v>1.7166372705152554E-2</v>
+        <v>1.7166372705152543E-2</v>
       </c>
       <c r="AR37">
-        <v>6.1537467559950156E-3</v>
+        <v>-6.1537467559950113E-3</v>
       </c>
       <c r="AS37">
-        <v>-6.0430967718733773E-3</v>
+        <v>-6.0430967718733703E-3</v>
       </c>
       <c r="AT37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <f>AA29</f>
-        <v>1.1242642988831675E-2</v>
-      </c>
-      <c r="B38" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.71195375553094409</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.42765431151084693</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.52744531050370014</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.35244929397890368</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.87552046795856309</v>
+      <c r="A38">
+        <f t="shared" ref="A38:A42" si="16">AH29</f>
+        <v>1.1242642988831673E-2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B42" si="17">AI29</f>
+        <v>0.35874483623315734</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C42" si="18">AJ29</f>
+        <v>0.69840868628893871</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D42" si="19">AK29</f>
+        <v>-0.5928679154187555</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E42" si="20">AL29</f>
+        <v>-0.35244929397890379</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F42" si="21">AM29</f>
+        <v>-0.87552046795856353</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K38">
         <f>B40/I37</f>
-        <v>0.12364571684265262</v>
+        <v>0.12364571684265237</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2387,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="AA38" s="1">
-        <v>1.1242642988831675E-2</v>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="AB38" s="1">
-        <v>0.35874483623315689</v>
+        <v>0.35874483623315734</v>
       </c>
       <c r="AC38" s="1">
-        <v>-0.6984086862889386</v>
+        <v>0.69840868628893871</v>
       </c>
       <c r="AD38" s="1">
         <v>-0.5928679154187555</v>
       </c>
       <c r="AE38" s="1">
-        <v>-0.35244929397890368</v>
+        <v>-0.35244929397890379</v>
       </c>
       <c r="AF38" s="1">
-        <v>-0.87552046795856309</v>
+        <v>-0.87552046795856353</v>
       </c>
       <c r="AH38">
-        <v>1.1242642988831675E-2</v>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="AI38">
-        <v>0.35874483623315689</v>
+        <v>0.35874483623315734</v>
       </c>
       <c r="AJ38">
-        <v>0.46754608075969495</v>
+        <v>0.46754608075969517</v>
       </c>
       <c r="AK38">
-        <v>0.67467374255222134</v>
+        <v>-0.67467374255222112</v>
       </c>
       <c r="AL38">
-        <v>-0.53824117876643107</v>
+        <v>-0.53824117876643118</v>
       </c>
       <c r="AM38">
-        <v>-0.87552046795856309</v>
+        <v>-0.87552046795856353</v>
       </c>
       <c r="AO38">
         <v>-1.9551574946075859E-2</v>
       </c>
       <c r="AP38">
-        <v>-3.0245608092405226E-2</v>
+        <v>-3.0245608092405719E-2</v>
       </c>
       <c r="AQ38">
         <v>-0.93482778225623853</v>
       </c>
       <c r="AR38">
-        <v>-0.12845527478128554</v>
+        <v>0.12845527478128538</v>
       </c>
       <c r="AS38">
-        <v>0.32908843645894842</v>
+        <v>0.32908843645894831</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -2443,28 +2728,28 @@
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" ref="A39:F42" si="18">AH30</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-5.4210108624275222E-20</v>
       </c>
       <c r="B39">
-        <f t="shared" si="18"/>
-        <v>-0.47468502578965716</v>
+        <f t="shared" si="17"/>
+        <v>0.47468502578965727</v>
       </c>
       <c r="C39">
         <f t="shared" si="18"/>
-        <v>0.94229873039965883</v>
+        <v>0.94229873039965861</v>
       </c>
       <c r="D39">
-        <f t="shared" si="18"/>
-        <v>4.6361653464696347E-2</v>
+        <f t="shared" si="19"/>
+        <v>-4.6361653464696083E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="18"/>
-        <v>0.3532584954331876</v>
+        <f t="shared" si="20"/>
+        <v>-0.35325849543318749</v>
       </c>
       <c r="F39">
-        <f t="shared" si="18"/>
-        <v>1.0072928731118655</v>
+        <f t="shared" si="21"/>
+        <v>-1.0072928731118651</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2474,11 +2759,11 @@
       </c>
       <c r="O39">
         <f>K37</f>
-        <v>-0.99232642648801128</v>
+        <v>0.99232642648801128</v>
       </c>
       <c r="P39">
         <f>K38</f>
-        <v>0.12364571684265262</v>
+        <v>0.12364571684265237</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -2501,61 +2786,61 @@
       </c>
       <c r="X39">
         <f>K41</f>
-        <v>0.33205664460680839</v>
+        <v>0.33205664460680828</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>2.5290097819814026E-20</v>
+        <v>5.0418576204891733E-20</v>
       </c>
       <c r="AB39">
         <v>0.50713059382408476</v>
       </c>
       <c r="AC39">
-        <v>-0.86845273637492659</v>
+        <v>0.86845273637492637</v>
       </c>
       <c r="AD39">
-        <v>0.33838219570238187</v>
+        <v>0.33838219570238193</v>
       </c>
       <c r="AE39">
-        <v>-0.37020930566052207</v>
+        <v>-0.37020930566052185</v>
       </c>
       <c r="AF39">
-        <v>-0.53981756523325486</v>
+        <v>-0.53981756523325464</v>
       </c>
       <c r="AH39">
-        <v>2.5290097819814026E-20</v>
+        <v>5.0418576204891733E-20</v>
       </c>
       <c r="AI39">
         <v>0.50713059382408476</v>
       </c>
       <c r="AJ39">
-        <v>0.72942529132940992</v>
+        <v>0.7294252913294097</v>
       </c>
       <c r="AK39">
-        <v>-0.22840513391547046</v>
+        <v>0.22840513391547074</v>
       </c>
       <c r="AL39">
-        <v>-0.64925914306474741</v>
+        <v>-0.64925914306474708</v>
       </c>
       <c r="AM39">
-        <v>-0.53981756523325486</v>
+        <v>-0.53981756523325464</v>
       </c>
       <c r="AO39">
-        <v>-2.3382344464800777E-2</v>
+        <v>-2.3382344464800781E-2</v>
       </c>
       <c r="AP39">
-        <v>-0.98623196266005198</v>
+        <v>-0.98623196266005186</v>
       </c>
       <c r="AQ39">
-        <v>4.7854840206428065E-2</v>
+        <v>4.7854840206428488E-2</v>
       </c>
       <c r="AR39">
-        <v>-0.15564669982626606</v>
+        <v>0.15564669982626597</v>
       </c>
       <c r="AS39">
-        <v>-1.6846391217125316E-2</v>
+        <v>-1.6846391217125459E-2</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -2563,38 +2848,38 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="18"/>
-        <v>2.1684043449710089E-19</v>
+        <f t="shared" si="16"/>
+        <v>8.6736173798840355E-19</v>
       </c>
       <c r="B40">
-        <f t="shared" si="18"/>
-        <v>5.914663635025575E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.9146636350255646E-2</v>
       </c>
       <c r="C40">
         <f t="shared" si="18"/>
-        <v>0.11625589652530877</v>
+        <v>-0.11625589652530884</v>
       </c>
       <c r="D40">
-        <f t="shared" si="18"/>
-        <v>0.33150375280305228</v>
+        <f t="shared" si="19"/>
+        <v>0.33150375280305233</v>
       </c>
       <c r="E40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.44554938039183661</v>
       </c>
       <c r="F40">
-        <f t="shared" si="18"/>
-        <v>0.71768467784813683</v>
+        <f t="shared" si="21"/>
+        <v>0.71768467784813694</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I40">
         <f>SQRT(I37*I37+B41*B41)</f>
-        <v>0.50713059382408476</v>
+        <v>0.50713059382408487</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K40">
         <f>I37/I40</f>
@@ -2608,11 +2893,11 @@
       </c>
       <c r="O40">
         <f>-P39</f>
-        <v>-0.12364571684265262</v>
+        <v>-0.12364571684265237</v>
       </c>
       <c r="P40">
         <f>O39</f>
-        <v>-0.99232642648801128</v>
+        <v>0.99232642648801128</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -2639,40 +2924,40 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-2.1517649348261581E-19</v>
+        <v>8.6740882167142971E-19</v>
       </c>
       <c r="AB40">
-        <v>6.9388939039072284E-18</v>
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="AC40">
-        <v>-0.23187500035730693</v>
+        <v>-0.23187500035730674</v>
       </c>
       <c r="AD40">
-        <v>-0.33469235426307092</v>
+        <v>0.33469235426307092</v>
       </c>
       <c r="AE40">
-        <v>0.39845152456958544</v>
+        <v>-0.39845152456958555</v>
       </c>
       <c r="AF40">
-        <v>-0.83672492108065288</v>
+        <v>0.83672492108065266</v>
       </c>
       <c r="AH40">
-        <v>-2.1517649348261581E-19</v>
+        <v>8.6740882167142971E-19</v>
       </c>
       <c r="AI40">
-        <v>6.9388939039072284E-18</v>
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="AJ40">
-        <v>0.31031324400786076</v>
+        <v>-0.31031324400786064</v>
       </c>
       <c r="AK40">
-        <v>0.36079441851580218</v>
+        <v>0.36079441851580213</v>
       </c>
       <c r="AL40">
-        <v>0.3131799536781481</v>
+        <v>-0.31317995367814833</v>
       </c>
       <c r="AM40">
-        <v>-0.83672492108065288</v>
+        <v>0.83672492108065266</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -2681,13 +2966,13 @@
         <v>0.1608471102409457</v>
       </c>
       <c r="AQ40">
-        <v>0.11511139044992519</v>
+        <v>0.11511139044992495</v>
       </c>
       <c r="AR40">
-        <v>-0.97940567622151309</v>
+        <v>0.97940567622151309</v>
       </c>
       <c r="AS40">
-        <v>-4.0522787427596914E-2</v>
+        <v>-4.0522787427596817E-2</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -2695,11 +2980,11 @@
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="B41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.1683960833626838</v>
       </c>
       <c r="C41">
@@ -2707,23 +2992,23 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0333008412436673</v>
       </c>
       <c r="E41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.7380917944841663E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.9616625467102935</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K41">
         <f>B41/I40</f>
-        <v>0.33205664460680839</v>
+        <v>0.33205664460680828</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2751,7 +3036,7 @@
       </c>
       <c r="V41">
         <f>-X39</f>
-        <v>-0.33205664460680839</v>
+        <v>-0.33205664460680828</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -2764,40 +3049,40 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-8.9029005207027453E-21</v>
+        <v>-1.774890597678686E-20</v>
       </c>
       <c r="AB41">
-        <v>2.7755575615628914E-17</v>
+        <v>5.5511151231257827E-17</v>
       </c>
       <c r="AC41">
-        <v>0.30572235718362734</v>
+        <v>-0.30572235718362711</v>
       </c>
       <c r="AD41">
-        <v>0.97633666692326793</v>
+        <v>0.97633666692326782</v>
       </c>
       <c r="AE41">
-        <v>0.16995470149482506</v>
+        <v>0.16995470149482494</v>
       </c>
       <c r="AF41">
-        <v>1.2095426761770267</v>
+        <v>1.2095426761770265</v>
       </c>
       <c r="AH41">
-        <v>-8.9029005207027453E-21</v>
+        <v>-1.774890597678686E-20</v>
       </c>
       <c r="AI41">
-        <v>2.7755575615628914E-17</v>
+        <v>5.5511151231257827E-17</v>
       </c>
       <c r="AJ41">
-        <v>-0.11585790690796341</v>
+        <v>-0.11585790690796352</v>
       </c>
       <c r="AK41">
-        <v>-1.0066459357459772</v>
+        <v>1.0066459357459769</v>
       </c>
       <c r="AL41">
-        <v>0.22096369130234061</v>
+        <v>0.2209636913023405</v>
       </c>
       <c r="AM41">
-        <v>1.2095426761770267</v>
+        <v>1.2095426761770265</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -2806,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>0.33205664460680839</v>
+        <v>0.33205664460680828</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -2820,11 +3105,11 @@
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="B42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C42">
@@ -2832,15 +3117,15 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.4224748675853458</v>
       </c>
       <c r="F42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.87348991104698737</v>
       </c>
       <c r="M42">
@@ -2904,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0.14028558696109561</v>
+        <v>0.14028558696109555</v>
       </c>
       <c r="AK42">
         <v>0</v>
@@ -2932,11 +3217,6 @@
       </c>
       <c r="AT42">
         <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
@@ -2947,56 +3227,56 @@
         <v>6</v>
       </c>
       <c r="M45" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="T45" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA45" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH45" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <f>A37</f>
+      <c r="A46">
+        <f>AH37</f>
         <v>0.51014869534138796</v>
       </c>
-      <c r="B46" s="1">
-        <f t="shared" ref="B46:F47" si="19">B37</f>
-        <v>-0.56261335305824256</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="19"/>
-        <v>0.48910760301185163</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.61563624153911767</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="19"/>
-        <v>-1.0947164338074673</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="19"/>
-        <v>9.6485108742967854E-2</v>
+      <c r="B46">
+        <f t="shared" ref="B46:B51" si="22">AI37</f>
+        <v>-0.5643854443573092</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C51" si="23">AJ37</f>
+        <v>0.114974402235069</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D51" si="24">AK37</f>
+        <v>-0.59909895466141827</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:E51" si="25">AL37</f>
+        <v>-1.2010422491569039</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:F51" si="26">AM37</f>
+        <v>9.648510874296784E-2</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I46">
         <f>SQRT(C49*C49+C50*C50)</f>
-        <v>0.33123611518035956</v>
+        <v>0.3312361151803595</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K46">
         <f>C49/I46</f>
-        <v>0.93683396763331139</v>
+        <v>-0.93683396763331117</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -3039,90 +3319,90 @@
         <v>0.51014869534138796</v>
       </c>
       <c r="AB46">
-        <v>-0.56438544435730953</v>
+        <v>-0.5643854443573092</v>
       </c>
       <c r="AC46">
-        <v>0.11497440223506855</v>
+        <v>0.114974402235069</v>
       </c>
       <c r="AD46">
-        <v>0.59909895466141827</v>
+        <v>-0.59909895466141827</v>
       </c>
       <c r="AE46">
         <v>-1.2010422491569039</v>
       </c>
       <c r="AF46">
-        <v>9.6485108742967854E-2</v>
+        <v>9.648510874296784E-2</v>
       </c>
       <c r="AH46">
         <f t="array" ref="AH46:AM51">MMULT(MMULT(AA46:AF51,TRANSPOSE(M46:R51)), TRANSPOSE(T46:Y51))</f>
         <v>0.51014869534138796</v>
       </c>
       <c r="AI46">
-        <v>-0.56438544435730953</v>
+        <v>-0.5643854443573092</v>
       </c>
       <c r="AJ46">
-        <v>0.11497440223506855</v>
+        <v>0.114974402235069</v>
       </c>
       <c r="AK46">
-        <v>0.94127501742473074</v>
+        <v>0.94127501742473119</v>
       </c>
       <c r="AL46">
-        <v>-0.91562770998993659</v>
+        <v>0.91562770998993592</v>
       </c>
       <c r="AM46">
         <v>-0.29386843351418146</v>
       </c>
       <c r="AO46">
         <f t="array" ref="AO46:AT51">MMULT(MMULT(AO37:AT42,TRANSPOSE(M46:R51)),TRANSPOSE(T46:Y51))</f>
-        <v>-0.99953539301240246</v>
+        <v>-0.99953539301240235</v>
       </c>
       <c r="AP46">
-        <v>2.3662758629527287E-2</v>
+        <v>2.3662758629527301E-2</v>
       </c>
       <c r="AQ46">
-        <v>1.7166372705152554E-2</v>
+        <v>1.7166372705152543E-2</v>
       </c>
       <c r="AR46">
-        <v>7.2549217077352846E-3</v>
+        <v>7.254921707735282E-3</v>
       </c>
       <c r="AS46">
-        <v>-3.508955367712042E-3</v>
+        <v>3.5089553677120334E-3</v>
       </c>
       <c r="AT46">
-        <v>-3.072614680232749E-3</v>
+        <v>-3.0726146802327473E-3</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <f>A38</f>
-        <v>1.1242642988831675E-2</v>
-      </c>
-      <c r="B47" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.71195375553094409</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.42765431151084693</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.52744531050370014</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.35244929397890368</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.87552046795856309</v>
+      <c r="A47">
+        <f t="shared" ref="A47:A51" si="27">AH38</f>
+        <v>1.1242642988831673E-2</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="22"/>
+        <v>0.35874483623315734</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="23"/>
+        <v>0.46754608075969517</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="24"/>
+        <v>-0.67467374255222112</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="25"/>
+        <v>-0.53824117876643118</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="26"/>
+        <v>-0.87552046795856353</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K47">
         <f>C50/I46</f>
-        <v>-0.34977438026308894</v>
+        <v>-0.34977438026308932</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3161,84 +3441,84 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>1.1242642988831675E-2</v>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="AB47">
-        <v>0.35874483623315689</v>
+        <v>0.35874483623315734</v>
       </c>
       <c r="AC47">
-        <v>0.46754608075969495</v>
+        <v>0.46754608075969517</v>
       </c>
       <c r="AD47">
-        <v>0.67467374255222134</v>
+        <v>-0.67467374255222112</v>
       </c>
       <c r="AE47">
-        <v>-0.53824117876643107</v>
+        <v>-0.53824117876643118</v>
       </c>
       <c r="AF47">
-        <v>-0.87552046795856309</v>
+        <v>-0.87552046795856353</v>
       </c>
       <c r="AH47">
-        <v>1.1242642988831675E-2</v>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="AI47">
-        <v>0.35874483623315689</v>
+        <v>0.35874483623315734</v>
       </c>
       <c r="AJ47">
-        <v>0.46754608075969495</v>
+        <v>0.46754608075969517</v>
       </c>
       <c r="AK47">
-        <v>0.41392584813089628</v>
+        <v>0.41392584813089617</v>
       </c>
       <c r="AL47">
-        <v>-0.26825902886640407</v>
+        <v>0.26825902886640385</v>
       </c>
       <c r="AM47">
-        <v>-1.126111362567864</v>
+        <v>-1.1261113625678645</v>
       </c>
       <c r="AO47">
         <v>-1.9551574946075859E-2</v>
       </c>
       <c r="AP47">
-        <v>-3.0245608092405226E-2</v>
+        <v>-3.0245608092405719E-2</v>
       </c>
       <c r="AQ47">
         <v>-0.93482778225623853</v>
       </c>
       <c r="AR47">
-        <v>-0.21680527203533603</v>
+        <v>-0.21680527203533598</v>
       </c>
       <c r="AS47">
-        <v>0.26337086150193062</v>
+        <v>-0.2633708615019304</v>
       </c>
       <c r="AT47">
-        <v>9.1821674780771426E-2</v>
+        <v>9.1821674780771384E-2</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f>AA39</f>
-        <v>2.5290097819814026E-20</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" ref="B48:F48" si="20">AB39</f>
+      <c r="A48">
+        <f t="shared" si="27"/>
+        <v>5.0418576204891733E-20</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="22"/>
         <v>0.50713059382408476</v>
       </c>
-      <c r="C48" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.86845273637492659</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="20"/>
-        <v>0.33838219570238187</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.37020930566052207</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="20"/>
-        <v>-0.53981756523325486</v>
+      <c r="C48">
+        <f t="shared" si="23"/>
+        <v>0.7294252913294097</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="24"/>
+        <v>0.22840513391547074</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="25"/>
+        <v>-0.64925914306474708</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="26"/>
+        <v>-0.53981756523325464</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3277,98 +3557,98 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>2.5290097819814026E-20</v>
+        <v>5.0418576204891733E-20</v>
       </c>
       <c r="AB48">
         <v>0.50713059382408476</v>
       </c>
       <c r="AC48">
-        <v>0.72942529132940992</v>
+        <v>0.7294252913294097</v>
       </c>
       <c r="AD48">
-        <v>-0.22840513391547046</v>
+        <v>0.22840513391547074</v>
       </c>
       <c r="AE48">
-        <v>-0.64925914306474741</v>
+        <v>-0.64925914306474708</v>
       </c>
       <c r="AF48">
-        <v>-0.53981756523325486</v>
+        <v>-0.53981756523325464</v>
       </c>
       <c r="AH48">
-        <v>2.5290097819814026E-20</v>
+        <v>5.0418576204891733E-20</v>
       </c>
       <c r="AI48">
         <v>0.50713059382408476</v>
       </c>
       <c r="AJ48">
-        <v>0.72942529132940992</v>
+        <v>0.7294252913294097</v>
       </c>
       <c r="AK48">
-        <v>-0.19844393253474393</v>
+        <v>-0.19844393253474388</v>
       </c>
       <c r="AL48">
-        <v>-0.68813828318374259</v>
+        <v>0.68813828318374237</v>
       </c>
       <c r="AM48">
-        <v>-0.50219025542472528</v>
+        <v>-0.50219025542472517</v>
       </c>
       <c r="AO48">
-        <v>-2.3382344464800777E-2</v>
+        <v>-2.3382344464800781E-2</v>
       </c>
       <c r="AP48">
-        <v>-0.98623196266005198</v>
+        <v>-0.98623196266005186</v>
       </c>
       <c r="AQ48">
-        <v>4.7854840206428065E-2</v>
+        <v>4.7854840206428488E-2</v>
       </c>
       <c r="AR48">
-        <v>-0.12884364525752989</v>
+        <v>-0.12884364525752975</v>
       </c>
       <c r="AS48">
-        <v>-7.0223499495969718E-2</v>
+        <v>7.0223499495969871E-2</v>
       </c>
       <c r="AT48">
-        <v>5.4568042471207868E-2</v>
+        <v>5.4568042471207799E-2</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" ref="A49:F51" si="21">AH40</f>
-        <v>-2.1517649348261581E-19</v>
+        <f t="shared" si="27"/>
+        <v>8.6740882167142971E-19</v>
       </c>
       <c r="B49">
-        <f t="shared" si="21"/>
-        <v>6.9388939039072284E-18</v>
+        <f t="shared" si="22"/>
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="C49">
-        <f t="shared" si="21"/>
-        <v>0.31031324400786076</v>
+        <f t="shared" si="23"/>
+        <v>-0.31031324400786064</v>
       </c>
       <c r="D49">
-        <f t="shared" si="21"/>
-        <v>0.36079441851580218</v>
+        <f t="shared" si="24"/>
+        <v>0.36079441851580213</v>
       </c>
       <c r="E49">
-        <f t="shared" si="21"/>
-        <v>0.3131799536781481</v>
+        <f t="shared" si="25"/>
+        <v>-0.31317995367814833</v>
       </c>
       <c r="F49">
-        <f t="shared" si="21"/>
-        <v>-0.83672492108065288</v>
+        <f t="shared" si="26"/>
+        <v>0.83672492108065266</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I49">
         <f>SQRT(I46*I46+C51*C51)</f>
-        <v>0.35971851482623962</v>
+        <v>0.35971851482623951</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K49">
         <f>I46/I49</f>
-        <v>0.9208203123499541</v>
+        <v>0.92082031234995421</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3381,11 +3661,11 @@
       </c>
       <c r="P49">
         <f>K46</f>
-        <v>0.93683396763331139</v>
+        <v>-0.93683396763331117</v>
       </c>
       <c r="Q49">
         <f>K47</f>
-        <v>-0.34977438026308894</v>
+        <v>-0.34977438026308932</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -3401,50 +3681,50 @@
       </c>
       <c r="W49">
         <f>K49</f>
-        <v>0.9208203123499541</v>
+        <v>0.92082031234995421</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49">
         <f>K50</f>
-        <v>0.38998711820229748</v>
+        <v>0.38998711820229742</v>
       </c>
       <c r="AA49">
-        <v>-1.8275579820750705E-19</v>
+        <v>-7.4255864857706256E-19</v>
       </c>
       <c r="AB49">
-        <v>-2.9536211646427897E-18</v>
+        <v>-1.1893119031206073E-17</v>
       </c>
       <c r="AC49">
-        <v>0.35971851482623962</v>
+        <v>0.35971851482623951</v>
       </c>
       <c r="AD49">
-        <v>0.63546125128678321</v>
+        <v>-0.63546125128678344</v>
       </c>
       <c r="AE49">
-        <v>0.35440984030385403</v>
+        <v>0.35440984030385414</v>
       </c>
       <c r="AF49">
-        <v>-0.77072447226850449</v>
+        <v>-0.7707244722685046</v>
       </c>
       <c r="AH49">
-        <v>-1.8275579820750705E-19</v>
+        <v>-7.4255864857706256E-19</v>
       </c>
       <c r="AI49">
-        <v>-2.9536211646427897E-18</v>
+        <v>-1.1893119031206073E-17</v>
       </c>
       <c r="AJ49">
-        <v>0.35971851482623962</v>
+        <v>0.35971851482623951</v>
       </c>
       <c r="AK49">
-        <v>0.13346359191054946</v>
+        <v>0.13346359191054941</v>
       </c>
       <c r="AL49">
-        <v>0.55429124221018955</v>
+        <v>-0.55429124221018977</v>
       </c>
       <c r="AM49">
-        <v>-0.89352237654585442</v>
+        <v>-0.89352237654585454</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -3453,49 +3733,49 @@
         <v>0.1608471102409457</v>
       </c>
       <c r="AQ49">
-        <v>0.11511139044992519</v>
+        <v>0.11511139044992495</v>
       </c>
       <c r="AR49">
-        <v>-0.83183838173888025</v>
+        <v>-0.83183838173888014</v>
       </c>
       <c r="AS49">
-        <v>-0.38053413715188816</v>
+        <v>0.38053413715188844</v>
       </c>
       <c r="AT49">
-        <v>0.35230136537335555</v>
+        <v>0.35230136537335538</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="21"/>
-        <v>-8.9029005207027453E-21</v>
+        <f t="shared" si="27"/>
+        <v>-1.774890597678686E-20</v>
       </c>
       <c r="B50">
-        <f t="shared" si="21"/>
-        <v>2.7755575615628914E-17</v>
+        <f t="shared" si="22"/>
+        <v>5.5511151231257827E-17</v>
       </c>
       <c r="C50">
-        <f t="shared" si="21"/>
-        <v>-0.11585790690796341</v>
+        <f t="shared" si="23"/>
+        <v>-0.11585790690796352</v>
       </c>
       <c r="D50">
-        <f t="shared" si="21"/>
-        <v>-1.0066459357459772</v>
+        <f t="shared" si="24"/>
+        <v>1.0066459357459769</v>
       </c>
       <c r="E50">
-        <f t="shared" si="21"/>
-        <v>0.22096369130234061</v>
+        <f t="shared" si="25"/>
+        <v>0.2209636913023405</v>
       </c>
       <c r="F50">
-        <f t="shared" si="21"/>
-        <v>1.2095426761770267</v>
+        <f t="shared" si="26"/>
+        <v>1.2095426761770265</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K50">
         <f>C51/I49</f>
-        <v>0.38998711820229748</v>
+        <v>0.38998711820229742</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3508,11 +3788,11 @@
       </c>
       <c r="P50">
         <f>-Q49</f>
-        <v>0.34977438026308894</v>
+        <v>0.34977438026308932</v>
       </c>
       <c r="Q50">
         <f>P49</f>
-        <v>0.93683396763331139</v>
+        <v>-0.93683396763331117</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -3536,40 +3816,40 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>-8.3603764273321167E-20</v>
+        <v>3.2002516104224471E-19</v>
       </c>
       <c r="AB50">
-        <v>2.8429413342886502E-17</v>
+        <v>-5.4431779370822517E-17</v>
       </c>
       <c r="AC50">
         <v>0</v>
       </c>
       <c r="AD50">
-        <v>-0.81686346184810499</v>
+        <v>-0.81686346184810432</v>
       </c>
       <c r="AE50">
-        <v>0.31654861583427113</v>
+        <v>-0.31654861583427119</v>
       </c>
       <c r="AF50">
-        <v>0.8404757236230701</v>
+        <v>-0.84047572362306944</v>
       </c>
       <c r="AH50">
-        <v>-8.3603764273321167E-20</v>
+        <v>3.2002516104224471E-19</v>
       </c>
       <c r="AI50">
-        <v>2.8429413342886502E-17</v>
+        <v>-5.4431779370822517E-17</v>
       </c>
       <c r="AJ50">
         <v>0</v>
       </c>
       <c r="AK50">
-        <v>-0.47885102797930745</v>
+        <v>0.47885102797930718</v>
       </c>
       <c r="AL50">
-        <v>1.0835584593370806E-2</v>
+        <v>1.083558459337064E-2</v>
       </c>
       <c r="AM50">
-        <v>1.1155503872969912</v>
+        <v>-1.1155503872969903</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -3578,41 +3858,41 @@
         <v>0</v>
       </c>
       <c r="AQ50">
-        <v>0.33205664460680839</v>
+        <v>0.33205664460680828</v>
       </c>
       <c r="AR50">
-        <v>-0.30380439349647048</v>
+        <v>-0.30380439349647087</v>
       </c>
       <c r="AS50">
-        <v>0.88367749044805144</v>
+        <v>-0.88367749044805122</v>
       </c>
       <c r="AT50">
-        <v>0.12866766548027403</v>
+        <v>0.12866766548027414</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="B51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" si="21"/>
-        <v>0.14028558696109561</v>
+        <f t="shared" si="23"/>
+        <v>0.14028558696109555</v>
       </c>
       <c r="D51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.39850341006349788</v>
       </c>
       <c r="F51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.87348991104698737</v>
       </c>
       <c r="M51">
@@ -3644,50 +3924,50 @@
       </c>
       <c r="W51">
         <f>-Y49</f>
-        <v>-0.38998711820229748</v>
+        <v>-0.38998711820229742</v>
       </c>
       <c r="X51">
         <v>0</v>
       </c>
       <c r="Y51">
         <f>W49</f>
-        <v>0.9208203123499541</v>
+        <v>0.92082031234995421</v>
       </c>
       <c r="AA51">
-        <v>7.7400993572586918E-20</v>
+        <v>3.1448948678784601E-19</v>
       </c>
       <c r="AB51">
-        <v>1.2509218039736182E-18</v>
+        <v>5.0369905563662674E-18</v>
       </c>
       <c r="AC51">
         <v>-2.7755575615628914E-17</v>
       </c>
       <c r="AD51">
-        <v>-0.26913144594531374</v>
+        <v>0.26913144594531374</v>
       </c>
       <c r="AE51">
-        <v>0.28266984805819506</v>
+        <v>0.28266984805819512</v>
       </c>
       <c r="AF51">
         <v>1.2750180585381896</v>
       </c>
       <c r="AH51">
-        <v>7.7400993572586918E-20</v>
+        <v>3.1448948678784601E-19</v>
       </c>
       <c r="AI51">
-        <v>1.2509218039736182E-18</v>
+        <v>5.0369905563662674E-18</v>
       </c>
       <c r="AJ51">
         <v>-2.7755575615628914E-17</v>
       </c>
       <c r="AK51">
-        <v>0.17403070776169272</v>
+        <v>0.17403070776169249</v>
       </c>
       <c r="AL51">
-        <v>0.17067943057183305</v>
+        <v>-0.17067943057183294</v>
       </c>
       <c r="AM51">
-        <v>1.3109488443612098</v>
+        <v>1.3109488443612101</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -3699,18 +3979,13 @@
         <v>0</v>
       </c>
       <c r="AR51">
-        <v>0.38998711820229748</v>
+        <v>0.38998711820229742</v>
       </c>
       <c r="AS51">
         <v>0</v>
       </c>
       <c r="AT51">
-        <v>0.9208203123499541</v>
-      </c>
-    </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>35</v>
+        <v>0.92082031234995421</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
@@ -3721,53 +3996,53 @@
         <v>6</v>
       </c>
       <c r="M54" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA54" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AH54" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <f>A46</f>
+      <c r="A55">
+        <f>AH46</f>
         <v>0.51014869534138796</v>
       </c>
-      <c r="B55" s="1">
-        <f t="shared" ref="B55:F55" si="22">B46</f>
-        <v>-0.56261335305824256</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="22"/>
-        <v>0.48910760301185163</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.61563624153911767</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="22"/>
-        <v>-1.0947164338074673</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="22"/>
-        <v>9.6485108742967854E-2</v>
+      <c r="B55">
+        <f t="shared" ref="B55:B60" si="28">AI46</f>
+        <v>-0.5643854443573092</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:C60" si="29">AJ46</f>
+        <v>0.114974402235069</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:D60" si="30">AK46</f>
+        <v>0.94127501742473119</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:E60" si="31">AL46</f>
+        <v>0.91562770998993592</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55:F60" si="32">AM46</f>
+        <v>-0.29386843351418146</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I55">
         <f>SQRT(D59*D59+D60*D60)</f>
-        <v>0.50949484221223984</v>
+        <v>0.50949484221223951</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K55">
         <f>D59/I55</f>
-        <v>-0.9398545153079938</v>
+        <v>0.93985451530799391</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3810,16 +4085,16 @@
         <v>0.51014869534138796</v>
       </c>
       <c r="AB55">
-        <v>-0.56438544435730953</v>
+        <v>-0.5643854443573092</v>
       </c>
       <c r="AC55">
-        <v>0.11497440223506855</v>
+        <v>0.114974402235069</v>
       </c>
       <c r="AD55">
-        <v>0.94127501742473074</v>
+        <v>0.94127501742473119</v>
       </c>
       <c r="AE55">
-        <v>-0.91562770998993659</v>
+        <v>0.91562770998993592</v>
       </c>
       <c r="AF55">
         <v>-0.29386843351418146</v>
@@ -3829,71 +4104,71 @@
         <v>0.51014869534138796</v>
       </c>
       <c r="AI55">
-        <v>-0.56438544435730953</v>
+        <v>-0.5643854443573092</v>
       </c>
       <c r="AJ55">
-        <v>0.11497440223506855</v>
+        <v>0.114974402235069</v>
       </c>
       <c r="AK55">
-        <v>0.94127501742473074</v>
+        <v>0.94127501742473119</v>
       </c>
       <c r="AL55">
-        <v>0.76017872334100534</v>
+        <v>0.76017872334100478</v>
       </c>
       <c r="AM55">
-        <v>0.58894912182389214</v>
+        <v>-0.58894912182389181</v>
       </c>
       <c r="AO55">
         <f t="array" ref="AO55:AT60">MMULT(MMULT(AO46:AT51,TRANSPOSE(M55:R60)),TRANSPOSE(T55:Y60))</f>
-        <v>-0.99953539301240246</v>
+        <v>-0.99953539301240235</v>
       </c>
       <c r="AP55">
-        <v>2.3662758629527287E-2</v>
+        <v>2.3662758629527301E-2</v>
       </c>
       <c r="AQ55">
-        <v>1.7166372705152554E-2</v>
+        <v>1.7166372705152543E-2</v>
       </c>
       <c r="AR55">
-        <v>7.2549217077352846E-3</v>
+        <v>7.254921707735282E-3</v>
       </c>
       <c r="AS55">
-        <v>2.2483791445436301E-3</v>
+        <v>2.2483791445436236E-3</v>
       </c>
       <c r="AT55">
-        <v>4.0863822591820998E-3</v>
+        <v>-4.0863822591820954E-3</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <f t="shared" ref="A56:F57" si="23">A47</f>
-        <v>1.1242642988831675E-2</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" si="23"/>
-        <v>-0.71195375553094409</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="23"/>
-        <v>-0.42765431151084693</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="23"/>
-        <v>-0.52744531050370014</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="23"/>
-        <v>-0.35244929397890368</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="23"/>
-        <v>-0.87552046795856309</v>
+      <c r="A56">
+        <f t="shared" ref="A56:A60" si="33">AH47</f>
+        <v>1.1242642988831673E-2</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="28"/>
+        <v>0.35874483623315734</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="29"/>
+        <v>0.46754608075969517</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="30"/>
+        <v>0.41392584813089617</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="31"/>
+        <v>0.26825902886640385</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="32"/>
+        <v>-1.1261113625678645</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K56">
-        <f>D60/I55</f>
-        <v>0.34157501380396094</v>
+        <f>-D60/I55</f>
+        <v>-0.34157501380396071</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3932,84 +4207,84 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>1.1242642988831675E-2</v>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="AB56">
-        <v>0.35874483623315689</v>
+        <v>0.35874483623315734</v>
       </c>
       <c r="AC56">
-        <v>0.46754608075969495</v>
+        <v>0.46754608075969517</v>
       </c>
       <c r="AD56">
-        <v>0.41392584813089628</v>
+        <v>0.41392584813089617</v>
       </c>
       <c r="AE56">
-        <v>-0.26825902886640407</v>
+        <v>0.26825902886640385</v>
       </c>
       <c r="AF56">
-        <v>-1.126111362567864</v>
+        <v>-1.1261113625678645</v>
       </c>
       <c r="AH56">
-        <v>1.1242642988831675E-2</v>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="AI56">
-        <v>0.35874483623315689</v>
+        <v>0.35874483623315734</v>
       </c>
       <c r="AJ56">
-        <v>0.46754608075969495</v>
+        <v>0.46754608075969517</v>
       </c>
       <c r="AK56">
-        <v>0.41392584813089628</v>
+        <v>0.41392584813089617</v>
       </c>
       <c r="AL56">
-        <v>-0.13252704466168813</v>
+        <v>-0.13252704466168819</v>
       </c>
       <c r="AM56">
-        <v>1.1500114303371234</v>
+        <v>-1.1500114303371238</v>
       </c>
       <c r="AO56">
         <v>-1.9551574946075859E-2</v>
       </c>
       <c r="AP56">
-        <v>-3.0245608092405226E-2</v>
+        <v>-3.0245608092405719E-2</v>
       </c>
       <c r="AQ56">
         <v>-0.93482778225623853</v>
       </c>
       <c r="AR56">
-        <v>-0.21680527203533603</v>
+        <v>-0.21680527203533598</v>
       </c>
       <c r="AS56">
-        <v>-0.21616630355240096</v>
+        <v>-0.2161663035524008</v>
       </c>
       <c r="AT56">
-        <v>-0.1762599212989332</v>
+        <v>0.17625992129893303</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <f t="shared" si="23"/>
-        <v>2.5290097819814026E-20</v>
-      </c>
-      <c r="B57" s="1">
-        <f t="shared" si="23"/>
+      <c r="A57">
+        <f t="shared" si="33"/>
+        <v>5.0418576204891733E-20</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="28"/>
         <v>0.50713059382408476</v>
       </c>
-      <c r="C57" s="1">
-        <f t="shared" si="23"/>
-        <v>-0.86845273637492659</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="23"/>
-        <v>0.33838219570238187</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="23"/>
-        <v>-0.37020930566052207</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="23"/>
-        <v>-0.53981756523325486</v>
+      <c r="C57">
+        <f t="shared" si="29"/>
+        <v>0.7294252913294097</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="30"/>
+        <v>-0.19844393253474388</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="31"/>
+        <v>0.68813828318374237</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="32"/>
+        <v>-0.50219025542472517</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4048,84 +4323,84 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>2.5290097819814026E-20</v>
+        <v>5.0418576204891733E-20</v>
       </c>
       <c r="AB57">
         <v>0.50713059382408476</v>
       </c>
       <c r="AC57">
-        <v>0.72942529132940992</v>
+        <v>0.7294252913294097</v>
       </c>
       <c r="AD57">
-        <v>-0.19844393253474393</v>
+        <v>-0.19844393253474388</v>
       </c>
       <c r="AE57">
-        <v>-0.68813828318374259</v>
+        <v>0.68813828318374237</v>
       </c>
       <c r="AF57">
-        <v>-0.50219025542472528</v>
+        <v>-0.50219025542472517</v>
       </c>
       <c r="AH57">
-        <v>2.5290097819814026E-20</v>
+        <v>5.0418576204891733E-20</v>
       </c>
       <c r="AI57">
         <v>0.50713059382408476</v>
       </c>
       <c r="AJ57">
-        <v>0.72942529132940992</v>
+        <v>0.7294252913294097</v>
       </c>
       <c r="AK57">
-        <v>-0.19844393253474393</v>
+        <v>-0.19844393253474388</v>
       </c>
       <c r="AL57">
-        <v>0.47521422917761619</v>
+        <v>0.47521422917761624</v>
       </c>
       <c r="AM57">
-        <v>0.70703662268212364</v>
+        <v>-0.70703662268212342</v>
       </c>
       <c r="AO57">
-        <v>-2.3382344464800777E-2</v>
+        <v>-2.3382344464800781E-2</v>
       </c>
       <c r="AP57">
-        <v>-0.98623196266005198</v>
+        <v>-0.98623196266005186</v>
       </c>
       <c r="AQ57">
-        <v>4.7854840206428065E-2</v>
+        <v>4.7854840206428488E-2</v>
       </c>
       <c r="AR57">
-        <v>-0.12884364525752989</v>
+        <v>-0.12884364525752975</v>
       </c>
       <c r="AS57">
-        <v>8.4638952942373724E-2</v>
+        <v>8.4638952942373835E-2</v>
       </c>
       <c r="AT57">
-        <v>-2.7299428298384793E-2</v>
+        <v>2.7299428298384693E-2</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <f>AA49</f>
-        <v>-1.8275579820750705E-19</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" ref="B58:F58" si="24">AB49</f>
-        <v>-2.9536211646427897E-18</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="24"/>
-        <v>0.35971851482623962</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="24"/>
-        <v>0.63546125128678321</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="24"/>
-        <v>0.35440984030385403</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="24"/>
-        <v>-0.77072447226850449</v>
+      <c r="A58">
+        <f t="shared" si="33"/>
+        <v>-7.4255864857706256E-19</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="28"/>
+        <v>-1.1893119031206073E-17</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="29"/>
+        <v>0.35971851482623951</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="30"/>
+        <v>0.13346359191054941</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="31"/>
+        <v>-0.55429124221018977</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="32"/>
+        <v>-0.89352237654585454</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -4164,40 +4439,40 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1.8275579820750705E-19</v>
+        <v>-7.4255864857706256E-19</v>
       </c>
       <c r="AB58">
-        <v>-2.9536211646427897E-18</v>
+        <v>-1.1893119031206073E-17</v>
       </c>
       <c r="AC58">
-        <v>0.35971851482623962</v>
+        <v>0.35971851482623951</v>
       </c>
       <c r="AD58">
-        <v>0.13346359191054946</v>
+        <v>0.13346359191054941</v>
       </c>
       <c r="AE58">
-        <v>0.55429124221018955</v>
+        <v>-0.55429124221018977</v>
       </c>
       <c r="AF58">
-        <v>-0.89352237654585442</v>
+        <v>-0.89352237654585454</v>
       </c>
       <c r="AH58">
-        <v>-1.8275579820750705E-19</v>
+        <v>-7.4255864857706256E-19</v>
       </c>
       <c r="AI58">
-        <v>-2.9536211646427897E-18</v>
+        <v>-1.1893119031206073E-17</v>
       </c>
       <c r="AJ58">
-        <v>0.35971851482623962</v>
+        <v>0.35971851482623951</v>
       </c>
       <c r="AK58">
-        <v>0.13346359191054946</v>
+        <v>0.13346359191054941</v>
       </c>
       <c r="AL58">
-        <v>-0.82615804488972167</v>
+        <v>-0.82615804488972178</v>
       </c>
       <c r="AM58">
-        <v>0.65044900141599049</v>
+        <v>-0.65044900141599082</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -4206,42 +4481,42 @@
         <v>0.1608471102409457</v>
       </c>
       <c r="AQ58">
-        <v>0.11511139044992519</v>
+        <v>0.11511139044992495</v>
       </c>
       <c r="AR58">
-        <v>-0.83183838173888025</v>
+        <v>-0.83183838173888014</v>
       </c>
       <c r="AS58">
-        <v>0.47798407077159172</v>
+        <v>0.47798407077159188</v>
       </c>
       <c r="AT58">
-        <v>-0.20113107584478493</v>
+        <v>0.20113107584478482</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" ref="A59:F60" si="25">AH50</f>
-        <v>-8.3603764273321167E-20</v>
+        <f t="shared" si="33"/>
+        <v>3.2002516104224471E-19</v>
       </c>
       <c r="B59">
-        <f t="shared" si="25"/>
-        <v>2.8429413342886502E-17</v>
+        <f t="shared" si="28"/>
+        <v>-5.4431779370822517E-17</v>
       </c>
       <c r="C59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="D59">
-        <f t="shared" si="25"/>
-        <v>-0.47885102797930745</v>
+        <f t="shared" si="30"/>
+        <v>0.47885102797930718</v>
       </c>
       <c r="E59">
-        <f t="shared" si="25"/>
-        <v>1.0835584593370806E-2</v>
+        <f t="shared" si="31"/>
+        <v>1.083558459337064E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="25"/>
-        <v>1.1155503872969912</v>
+        <f t="shared" si="32"/>
+        <v>-1.1155503872969903</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4257,11 +4532,11 @@
       </c>
       <c r="Q59">
         <f>K55</f>
-        <v>-0.9398545153079938</v>
+        <v>0.93985451530799391</v>
       </c>
       <c r="R59">
-        <f>K56</f>
-        <v>0.34157501380396094</v>
+        <f>-K56</f>
+        <v>0.34157501380396071</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -4282,40 +4557,40 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>1.050136207970227E-19</v>
+        <v>4.0819884340848063E-19</v>
       </c>
       <c r="AB59">
-        <v>-2.6292228865409242E-17</v>
+        <v>-4.9437443499094833E-17</v>
       </c>
       <c r="AC59">
-        <v>-9.4806111240453277E-18</v>
+        <v>-9.4806111240453215E-18</v>
       </c>
       <c r="AD59">
-        <v>0.50949484221223984</v>
+        <v>0.50949484221223951</v>
       </c>
       <c r="AE59">
-        <v>4.8115955747544778E-2</v>
+        <v>-4.8115955747544861E-2</v>
       </c>
       <c r="AF59">
-        <v>-0.60066769894569139</v>
+        <v>-0.60066769894569094</v>
       </c>
       <c r="AH59">
-        <v>1.050136207970227E-19</v>
+        <v>4.0819884340848063E-19</v>
       </c>
       <c r="AI59">
-        <v>-2.6292228865409242E-17</v>
+        <v>-4.9437443499094833E-17</v>
       </c>
       <c r="AJ59">
-        <v>-9.4806111240453277E-18</v>
+        <v>-9.4806111240453215E-18</v>
       </c>
       <c r="AK59">
-        <v>0.50949484221223984</v>
+        <v>0.50949484221223951</v>
       </c>
       <c r="AL59">
-        <v>-0.25039507582665754</v>
+        <v>-0.25039507582665738</v>
       </c>
       <c r="AM59">
-        <v>0.54810504080511235</v>
+        <v>-0.54810504080511191</v>
       </c>
       <c r="AO59">
         <v>0</v>
@@ -4324,42 +4599,42 @@
         <v>0</v>
       </c>
       <c r="AQ59">
-        <v>0.33205664460680839</v>
+        <v>0.33205664460680828</v>
       </c>
       <c r="AR59">
-        <v>-0.30380439349647048</v>
+        <v>-0.30380439349647087</v>
       </c>
       <c r="AS59">
-        <v>-0.78657861986108968</v>
+        <v>-0.78657861986108957</v>
       </c>
       <c r="AT59">
-        <v>-0.42277103737381677</v>
+        <v>0.4227710373738166</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="25"/>
-        <v>7.7400993572586918E-20</v>
+        <f t="shared" si="33"/>
+        <v>3.1448948678784601E-19</v>
       </c>
       <c r="B60">
-        <f t="shared" si="25"/>
-        <v>1.2509218039736182E-18</v>
+        <f t="shared" si="28"/>
+        <v>5.0369905563662674E-18</v>
       </c>
       <c r="C60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-2.7755575615628914E-17</v>
       </c>
       <c r="D60">
-        <f t="shared" si="25"/>
-        <v>0.17403070776169272</v>
+        <f t="shared" si="30"/>
+        <v>0.17403070776169249</v>
       </c>
       <c r="E60">
-        <f t="shared" si="25"/>
-        <v>0.17067943057183305</v>
+        <f t="shared" si="31"/>
+        <v>-0.17067943057183294</v>
       </c>
       <c r="F60">
-        <f t="shared" si="25"/>
-        <v>1.3109488443612098</v>
+        <f t="shared" si="32"/>
+        <v>1.3109488443612101</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4375,11 +4650,11 @@
       </c>
       <c r="Q60">
         <f>-R59</f>
-        <v>-0.34157501380396094</v>
+        <v>-0.34157501380396071</v>
       </c>
       <c r="R60">
         <f>Q59</f>
-        <v>-0.9398545153079938</v>
+        <v>0.93985451530799391</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4400,37 +4675,37 @@
         <v>1</v>
       </c>
       <c r="AA60">
-        <v>-4.4188716362798049E-20</v>
+        <v>1.8626176537383127E-19</v>
       </c>
       <c r="AB60">
-        <v>-1.0886461760796794E-17</v>
+        <v>2.3326574107927408E-17</v>
       </c>
       <c r="AC60">
-        <v>2.6086203067321284E-17</v>
+        <v>-2.6086203067321287E-17</v>
       </c>
       <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60">
-        <v>-0.16411499845018915</v>
+        <v>-0.16411499845018898</v>
       </c>
       <c r="AF60">
-        <v>-1.6131453296506633</v>
+        <v>1.613145329650663</v>
       </c>
       <c r="AH60">
-        <v>-4.4188716362798049E-20</v>
+        <v>1.8626176537383127E-19</v>
       </c>
       <c r="AI60">
-        <v>-1.0886461760796794E-17</v>
+        <v>2.3326574107927408E-17</v>
       </c>
       <c r="AJ60">
-        <v>2.6086203067321284E-17</v>
+        <v>-2.6086203067321287E-17</v>
       </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>-0.39676591592004573</v>
+        <v>0.39676591592004545</v>
       </c>
       <c r="AM60">
         <v>1.5721795047812384</v>
@@ -4445,18 +4720,13 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <v>0.38998711820229748</v>
+        <v>0.38998711820229742</v>
       </c>
       <c r="AS60">
-        <v>0.31452921090190317</v>
+        <v>0.314529210901903</v>
       </c>
       <c r="AT60">
-        <v>-0.86543712834942155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>36</v>
+        <v>0.86543712834942177</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
@@ -4468,164 +4738,164 @@
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <f>A55</f>
+      <c r="A64">
+        <f>AH55</f>
         <v>0.51014869534138796</v>
       </c>
-      <c r="B64" s="1">
-        <f t="shared" ref="B64:F64" si="26">B55</f>
-        <v>-0.56261335305824256</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="26"/>
-        <v>0.48910760301185163</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="26"/>
-        <v>-0.61563624153911767</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="26"/>
-        <v>-1.0947164338074673</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="26"/>
-        <v>9.6485108742967854E-2</v>
+      <c r="B64">
+        <f t="shared" ref="B64:B69" si="34">AI55</f>
+        <v>-0.5643854443573092</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:C69" si="35">AJ55</f>
+        <v>0.114974402235069</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64:D69" si="36">AK55</f>
+        <v>0.94127501742473119</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64:E69" si="37">AL55</f>
+        <v>0.76017872334100478</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64:F69" si="38">AM55</f>
+        <v>-0.58894912182389181</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <f t="shared" ref="A65:F67" si="27">A56</f>
-        <v>1.1242642988831675E-2</v>
-      </c>
-      <c r="B65" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.71195375553094409</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.42765431151084693</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.52744531050370014</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.35244929397890368</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.87552046795856309</v>
+      <c r="A65">
+        <f t="shared" ref="A65:A69" si="39">AH56</f>
+        <v>1.1242642988831673E-2</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="34"/>
+        <v>0.35874483623315734</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="35"/>
+        <v>0.46754608075969517</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="36"/>
+        <v>0.41392584813089617</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="37"/>
+        <v>-0.13252704466168819</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="38"/>
+        <v>-1.1500114303371238</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <f t="shared" si="27"/>
-        <v>2.5290097819814026E-20</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="27"/>
+      <c r="A66">
+        <f t="shared" si="39"/>
+        <v>5.0418576204891733E-20</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="34"/>
         <v>0.50713059382408476</v>
       </c>
-      <c r="C66" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.86845273637492659</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="27"/>
-        <v>0.33838219570238187</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.37020930566052207</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.53981756523325486</v>
+      <c r="C66">
+        <f t="shared" si="35"/>
+        <v>0.7294252913294097</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="36"/>
+        <v>-0.19844393253474388</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="37"/>
+        <v>0.47521422917761624</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="38"/>
+        <v>-0.70703662268212342</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.8275579820750705E-19</v>
-      </c>
-      <c r="B67" s="1">
-        <f t="shared" si="27"/>
-        <v>-2.9536211646427897E-18</v>
-      </c>
-      <c r="C67" s="1">
-        <f t="shared" si="27"/>
-        <v>0.35971851482623962</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" si="27"/>
-        <v>0.63546125128678321</v>
-      </c>
-      <c r="E67" s="1">
-        <f t="shared" si="27"/>
-        <v>0.35440984030385403</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" si="27"/>
-        <v>-0.77072447226850449</v>
+      <c r="A67">
+        <f t="shared" si="39"/>
+        <v>-7.4255864857706256E-19</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="34"/>
+        <v>-1.1893119031206073E-17</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="35"/>
+        <v>0.35971851482623951</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="36"/>
+        <v>0.13346359191054941</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="37"/>
+        <v>-0.82615804488972178</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="38"/>
+        <v>-0.65044900141599082</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f>AA59</f>
-        <v>1.050136207970227E-19</v>
-      </c>
-      <c r="B68" s="1">
-        <f t="shared" ref="B68:F68" si="28">AB59</f>
-        <v>-2.6292228865409242E-17</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" si="28"/>
-        <v>-9.4806111240453277E-18</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="28"/>
-        <v>0.50949484221223984</v>
-      </c>
-      <c r="E68" s="1">
-        <f t="shared" si="28"/>
-        <v>4.8115955747544778E-2</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="28"/>
-        <v>-0.60066769894569139</v>
+      <c r="A68">
+        <f t="shared" si="39"/>
+        <v>4.0819884340848063E-19</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="34"/>
+        <v>-4.9437443499094833E-17</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="35"/>
+        <v>-9.4806111240453215E-18</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="36"/>
+        <v>0.50949484221223951</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="37"/>
+        <v>-0.25039507582665738</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="38"/>
+        <v>-0.54810504080511191</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" ref="A69:F69" si="29">AH60</f>
-        <v>-4.4188716362798049E-20</v>
+        <f t="shared" si="39"/>
+        <v>1.8626176537383127E-19</v>
       </c>
       <c r="B69">
-        <f t="shared" si="29"/>
-        <v>-1.0886461760796794E-17</v>
+        <f t="shared" si="34"/>
+        <v>2.3326574107927408E-17</v>
       </c>
       <c r="C69">
-        <f t="shared" si="29"/>
-        <v>2.6086203067321284E-17</v>
+        <f t="shared" si="35"/>
+        <v>-2.6086203067321287E-17</v>
       </c>
       <c r="D69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="29"/>
-        <v>-0.39676591592004573</v>
+        <f t="shared" si="37"/>
+        <v>0.39676591592004545</v>
       </c>
       <c r="F69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1.5721795047812384</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,159 +4912,159 @@
         <v>0.51014869534138796</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:F78" si="30">AI55</f>
-        <v>-0.56438544435730953</v>
+        <f t="shared" ref="B73:F78" si="40">AI55</f>
+        <v>-0.5643854443573092</v>
       </c>
       <c r="C73">
-        <f t="shared" si="30"/>
-        <v>0.11497440223506855</v>
+        <f t="shared" si="40"/>
+        <v>0.114974402235069</v>
       </c>
       <c r="D73">
-        <f t="shared" si="30"/>
-        <v>0.94127501742473074</v>
+        <f t="shared" si="40"/>
+        <v>0.94127501742473119</v>
       </c>
       <c r="E73">
-        <f t="shared" si="30"/>
-        <v>0.76017872334100534</v>
+        <f t="shared" si="40"/>
+        <v>0.76017872334100478</v>
       </c>
       <c r="F73">
-        <f t="shared" si="30"/>
-        <v>0.58894912182389214</v>
+        <f t="shared" si="40"/>
+        <v>-0.58894912182389181</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" ref="A74:A78" si="31">AH56</f>
-        <v>1.1242642988831675E-2</v>
+        <f t="shared" ref="A74:A78" si="41">AH56</f>
+        <v>1.1242642988831673E-2</v>
       </c>
       <c r="B74">
-        <f t="shared" si="30"/>
-        <v>0.35874483623315689</v>
+        <f t="shared" si="40"/>
+        <v>0.35874483623315734</v>
       </c>
       <c r="C74">
-        <f t="shared" si="30"/>
-        <v>0.46754608075969495</v>
+        <f t="shared" si="40"/>
+        <v>0.46754608075969517</v>
       </c>
       <c r="D74">
-        <f t="shared" si="30"/>
-        <v>0.41392584813089628</v>
+        <f t="shared" si="40"/>
+        <v>0.41392584813089617</v>
       </c>
       <c r="E74">
-        <f t="shared" si="30"/>
-        <v>-0.13252704466168813</v>
+        <f t="shared" si="40"/>
+        <v>-0.13252704466168819</v>
       </c>
       <c r="F74">
-        <f t="shared" si="30"/>
-        <v>1.1500114303371234</v>
+        <f t="shared" si="40"/>
+        <v>-1.1500114303371238</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="31"/>
-        <v>2.5290097819814026E-20</v>
+        <f t="shared" si="41"/>
+        <v>5.0418576204891733E-20</v>
       </c>
       <c r="B75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0.50713059382408476</v>
       </c>
       <c r="C75">
-        <f t="shared" si="30"/>
-        <v>0.72942529132940992</v>
+        <f t="shared" si="40"/>
+        <v>0.7294252913294097</v>
       </c>
       <c r="D75">
-        <f t="shared" si="30"/>
-        <v>-0.19844393253474393</v>
+        <f t="shared" si="40"/>
+        <v>-0.19844393253474388</v>
       </c>
       <c r="E75">
-        <f t="shared" si="30"/>
-        <v>0.47521422917761619</v>
+        <f t="shared" si="40"/>
+        <v>0.47521422917761624</v>
       </c>
       <c r="F75">
-        <f t="shared" si="30"/>
-        <v>0.70703662268212364</v>
+        <f t="shared" si="40"/>
+        <v>-0.70703662268212342</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="31"/>
-        <v>-1.8275579820750705E-19</v>
+        <f t="shared" si="41"/>
+        <v>-7.4255864857706256E-19</v>
       </c>
       <c r="B76">
-        <f t="shared" si="30"/>
-        <v>-2.9536211646427897E-18</v>
+        <f t="shared" si="40"/>
+        <v>-1.1893119031206073E-17</v>
       </c>
       <c r="C76">
-        <f t="shared" si="30"/>
-        <v>0.35971851482623962</v>
+        <f t="shared" si="40"/>
+        <v>0.35971851482623951</v>
       </c>
       <c r="D76">
-        <f t="shared" si="30"/>
-        <v>0.13346359191054946</v>
+        <f t="shared" si="40"/>
+        <v>0.13346359191054941</v>
       </c>
       <c r="E76">
-        <f t="shared" si="30"/>
-        <v>-0.82615804488972167</v>
+        <f t="shared" si="40"/>
+        <v>-0.82615804488972178</v>
       </c>
       <c r="F76">
-        <f t="shared" si="30"/>
-        <v>0.65044900141599049</v>
+        <f t="shared" si="40"/>
+        <v>-0.65044900141599082</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="31"/>
-        <v>1.050136207970227E-19</v>
+        <f t="shared" si="41"/>
+        <v>4.0819884340848063E-19</v>
       </c>
       <c r="B77">
-        <f t="shared" si="30"/>
-        <v>-2.6292228865409242E-17</v>
+        <f t="shared" si="40"/>
+        <v>-4.9437443499094833E-17</v>
       </c>
       <c r="C77">
-        <f t="shared" si="30"/>
-        <v>-9.4806111240453277E-18</v>
+        <f t="shared" si="40"/>
+        <v>-9.4806111240453215E-18</v>
       </c>
       <c r="D77">
-        <f t="shared" si="30"/>
-        <v>0.50949484221223984</v>
+        <f t="shared" si="40"/>
+        <v>0.50949484221223951</v>
       </c>
       <c r="E77">
-        <f t="shared" si="30"/>
-        <v>-0.25039507582665754</v>
+        <f t="shared" si="40"/>
+        <v>-0.25039507582665738</v>
       </c>
       <c r="F77">
-        <f t="shared" si="30"/>
-        <v>0.54810504080511235</v>
+        <f t="shared" si="40"/>
+        <v>-0.54810504080511191</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="31"/>
-        <v>-4.4188716362798049E-20</v>
+        <f t="shared" si="41"/>
+        <v>1.8626176537383127E-19</v>
       </c>
       <c r="B78">
-        <f t="shared" si="30"/>
-        <v>-1.0886461760796794E-17</v>
+        <f t="shared" si="40"/>
+        <v>2.3326574107927408E-17</v>
       </c>
       <c r="C78">
-        <f t="shared" si="30"/>
-        <v>2.6086203067321284E-17</v>
+        <f t="shared" si="40"/>
+        <v>-2.6086203067321287E-17</v>
       </c>
       <c r="D78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="30"/>
-        <v>-0.39676591592004573</v>
+        <f t="shared" si="40"/>
+        <v>0.39676591592004545</v>
       </c>
       <c r="F78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>1.5721795047812384</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4808,260 +5078,260 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>AO55</f>
-        <v>-0.99953539301240246</v>
+        <v>-0.99953539301240235</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82:F87" si="32">AP55</f>
-        <v>2.3662758629527287E-2</v>
+        <f t="shared" ref="B82:F87" si="42">AP55</f>
+        <v>2.3662758629527301E-2</v>
       </c>
       <c r="C82">
-        <f t="shared" si="32"/>
-        <v>1.7166372705152554E-2</v>
+        <f t="shared" si="42"/>
+        <v>1.7166372705152543E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="32"/>
-        <v>7.2549217077352846E-3</v>
+        <f t="shared" si="42"/>
+        <v>7.254921707735282E-3</v>
       </c>
       <c r="E82">
-        <f t="shared" si="32"/>
-        <v>2.2483791445436301E-3</v>
+        <f t="shared" si="42"/>
+        <v>2.2483791445436236E-3</v>
       </c>
       <c r="F82">
-        <f t="shared" si="32"/>
-        <v>4.0863822591820998E-3</v>
+        <f t="shared" si="42"/>
+        <v>-4.0863822591820954E-3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" ref="A83:A87" si="33">AO56</f>
+        <f t="shared" ref="A83:A87" si="43">AO56</f>
         <v>-1.9551574946075859E-2</v>
       </c>
       <c r="B83">
-        <f t="shared" si="32"/>
-        <v>-3.0245608092405226E-2</v>
+        <f t="shared" si="42"/>
+        <v>-3.0245608092405719E-2</v>
       </c>
       <c r="C83">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>-0.93482778225623853</v>
       </c>
       <c r="D83">
-        <f t="shared" si="32"/>
-        <v>-0.21680527203533603</v>
+        <f t="shared" si="42"/>
+        <v>-0.21680527203533598</v>
       </c>
       <c r="E83">
-        <f t="shared" si="32"/>
-        <v>-0.21616630355240096</v>
+        <f t="shared" si="42"/>
+        <v>-0.2161663035524008</v>
       </c>
       <c r="F83">
-        <f t="shared" si="32"/>
-        <v>-0.1762599212989332</v>
+        <f t="shared" si="42"/>
+        <v>0.17625992129893303</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="33"/>
-        <v>-2.3382344464800777E-2</v>
+        <f t="shared" si="43"/>
+        <v>-2.3382344464800781E-2</v>
       </c>
       <c r="B84">
-        <f t="shared" si="32"/>
-        <v>-0.98623196266005198</v>
+        <f t="shared" si="42"/>
+        <v>-0.98623196266005186</v>
       </c>
       <c r="C84">
-        <f t="shared" si="32"/>
-        <v>4.7854840206428065E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.7854840206428488E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="32"/>
-        <v>-0.12884364525752989</v>
+        <f t="shared" si="42"/>
+        <v>-0.12884364525752975</v>
       </c>
       <c r="E84">
-        <f t="shared" si="32"/>
-        <v>8.4638952942373724E-2</v>
+        <f t="shared" si="42"/>
+        <v>8.4638952942373835E-2</v>
       </c>
       <c r="F84">
-        <f t="shared" si="32"/>
-        <v>-2.7299428298384793E-2</v>
+        <f t="shared" si="42"/>
+        <v>2.7299428298384693E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.1608471102409457</v>
       </c>
       <c r="C85">
-        <f t="shared" si="32"/>
-        <v>0.11511139044992519</v>
+        <f t="shared" si="42"/>
+        <v>0.11511139044992495</v>
       </c>
       <c r="D85">
-        <f t="shared" si="32"/>
-        <v>-0.83183838173888025</v>
+        <f t="shared" si="42"/>
+        <v>-0.83183838173888014</v>
       </c>
       <c r="E85">
-        <f t="shared" si="32"/>
-        <v>0.47798407077159172</v>
+        <f t="shared" si="42"/>
+        <v>0.47798407077159188</v>
       </c>
       <c r="F85">
-        <f t="shared" si="32"/>
-        <v>-0.20113107584478493</v>
+        <f t="shared" si="42"/>
+        <v>0.20113107584478482</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="32"/>
-        <v>0.33205664460680839</v>
+        <f t="shared" si="42"/>
+        <v>0.33205664460680828</v>
       </c>
       <c r="D86">
-        <f t="shared" si="32"/>
-        <v>-0.30380439349647048</v>
+        <f t="shared" si="42"/>
+        <v>-0.30380439349647087</v>
       </c>
       <c r="E86">
-        <f t="shared" si="32"/>
-        <v>-0.78657861986108968</v>
+        <f t="shared" si="42"/>
+        <v>-0.78657861986108957</v>
       </c>
       <c r="F86">
-        <f t="shared" si="32"/>
-        <v>-0.42277103737381677</v>
+        <f t="shared" si="42"/>
+        <v>0.4227710373738166</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="B87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="C87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D87">
-        <f t="shared" si="32"/>
-        <v>0.38998711820229748</v>
+        <f t="shared" si="42"/>
+        <v>0.38998711820229742</v>
       </c>
       <c r="E87">
-        <f t="shared" si="32"/>
-        <v>0.31452921090190317</v>
+        <f t="shared" si="42"/>
+        <v>0.314529210901903</v>
       </c>
       <c r="F87">
-        <f t="shared" si="32"/>
-        <v>-0.86543712834942155</v>
+        <f t="shared" si="42"/>
+        <v>0.86543712834942177</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="array" ref="A90:F95">MMULT(MMULT(A82:F87,A73:F78),TRANSPOSE(A82:F87))</f>
-        <v>0.51096765422280765</v>
+        <v>0.51096765422280754</v>
       </c>
       <c r="B90">
-        <v>0.53703486030029579</v>
+        <v>0.53703486030029557</v>
       </c>
       <c r="C90">
-        <v>-0.49543738747236971</v>
+        <v>-0.49543738747236932</v>
       </c>
       <c r="D90">
-        <v>0.60214676327980321</v>
+        <v>0.60214676327980343</v>
       </c>
       <c r="E90">
-        <v>1.0809376644792021</v>
+        <v>1.0809376644792015</v>
       </c>
       <c r="F90">
-        <v>-0.13888259682395182</v>
+        <v>-0.13888259682395188</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-1.9541805325634407E-2</v>
+        <v>-1.9541805325634404E-2</v>
       </c>
       <c r="B91">
         <v>0.98892965149858214</v>
       </c>
       <c r="C91">
-        <v>0.44956334078714466</v>
+        <v>0.44956334078714422</v>
       </c>
       <c r="D91">
-        <v>-9.2430712236829526E-4</v>
+        <v>-9.2430712236823975E-4</v>
       </c>
       <c r="E91">
-        <v>0.38289234470783734</v>
+        <v>0.38289234470783751</v>
       </c>
       <c r="F91">
-        <v>1.0347589082331858</v>
+        <v>1.0347589082331863</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2.2551405187698492E-17</v>
+        <v>2.4286128663675299E-17</v>
       </c>
       <c r="B92">
-        <v>0.70443532123445907</v>
+        <v>0.70443532123445873</v>
       </c>
       <c r="C92">
-        <v>0.39531991410182016</v>
+        <v>0.39531991410181988</v>
       </c>
       <c r="D92">
         <v>0.58964624072768967</v>
       </c>
       <c r="E92">
-        <v>0.29059670028963946</v>
+        <v>0.29059670028963935</v>
       </c>
       <c r="F92">
-        <v>0.94523438160251794</v>
+        <v>0.94523438160251805</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2.8189256484623115E-18</v>
+        <v>-8.6736173798840355E-19</v>
       </c>
       <c r="B93">
-        <v>-1.6653345369377348E-16</v>
+        <v>-3.4694469519536142E-17</v>
       </c>
       <c r="C93">
-        <v>-7.7338123170088674E-2</v>
+        <v>-7.7338123170088591E-2</v>
       </c>
       <c r="D93">
-        <v>0.24747879495404579</v>
+        <v>0.2474787949540459</v>
       </c>
       <c r="E93">
-        <v>-0.49643848147861558</v>
+        <v>-0.49643848147861547</v>
       </c>
       <c r="F93">
-        <v>0.56751500863983195</v>
+        <v>0.56751500863983217</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>8.6736173798840355E-19</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>-4.163336342344337E-17</v>
+        <v>-4.5102810375396984E-17</v>
       </c>
       <c r="D94">
-        <v>1.0469326002216008</v>
+        <v>1.0469326002216004</v>
       </c>
       <c r="E94">
-        <v>3.7380917944841663E-2</v>
+        <v>3.7380917944841607E-2</v>
       </c>
       <c r="F94">
         <v>0.9616625467102935</v>
@@ -5069,27 +5339,27 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-4.3368086899420177E-19</v>
+        <v>-3.0357660829594124E-18</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="D95">
-        <v>2.7755575615628914E-17</v>
+        <v>1.9428902930940239E-16</v>
       </c>
       <c r="E95">
-        <v>0.4224748675853458</v>
+        <v>0.42247486758534591</v>
       </c>
       <c r="F95">
-        <v>0.87348991104698714</v>
+        <v>0.87348991104698781</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5098,153 +5368,153 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:F98" si="34">B90-B3</f>
+        <f t="shared" ref="B98:F98" si="44">B90-B3</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="D98">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" ref="A99:F99" si="35">A91-A4</f>
-        <v>0</v>
+        <f t="shared" ref="A99:F99" si="45">A91-A4</f>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="B99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C99">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>-6.6613381477509392E-16</v>
       </c>
       <c r="D99">
-        <f t="shared" si="35"/>
-        <v>-1.6653345369377348E-16</v>
+        <f t="shared" si="45"/>
+        <v>-1.1102230246251565E-16</v>
       </c>
       <c r="E99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" ref="A100:F100" si="36">A92-A5</f>
-        <v>2.2551405187698492E-17</v>
+        <f t="shared" ref="A100:F100" si="46">A92-A5</f>
+        <v>2.4286128663675299E-17</v>
       </c>
       <c r="B100">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="C100">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>-5.5511151231257827E-16</v>
       </c>
       <c r="D100">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" ref="A101:F101" si="37">A93-A6</f>
-        <v>2.8189256484623115E-18</v>
+        <f t="shared" ref="A101:F101" si="47">A93-A6</f>
+        <v>-8.6736173798840355E-19</v>
       </c>
       <c r="B101">
-        <f t="shared" si="37"/>
-        <v>-1.6653345369377348E-16</v>
+        <f t="shared" si="47"/>
+        <v>-3.4694469519536142E-17</v>
       </c>
       <c r="C101">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="D101">
-        <f t="shared" si="37"/>
-        <v>-2.2204460492503131E-16</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" ref="A102:F102" si="38">A94-A7</f>
-        <v>8.6736173798840355E-19</v>
+        <f t="shared" ref="A102:F102" si="48">A94-A7</f>
+        <v>0</v>
       </c>
       <c r="B102">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="C102">
-        <f t="shared" si="38"/>
-        <v>-4.163336342344337E-17</v>
+        <f t="shared" si="48"/>
+        <v>-4.5102810375396984E-17</v>
       </c>
       <c r="D102">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>-5.5511151231257827E-17</v>
       </c>
       <c r="F102">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" ref="A103:F103" si="39">A95-A8</f>
-        <v>-4.3368086899420177E-19</v>
+        <f t="shared" ref="A103:F103" si="49">A95-A8</f>
+        <v>-3.0357660829594124E-18</v>
       </c>
       <c r="B103">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="C103">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="D103">
-        <f t="shared" si="39"/>
-        <v>2.7755575615628914E-17</v>
+        <f t="shared" si="49"/>
+        <v>1.9428902930940239E-16</v>
       </c>
       <c r="E103">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -5278,723 +5548,723 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*2-0.7</f>
-        <v>0.35588891959797375</v>
+        <v>7.9017715354007478E-2</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*2-0.7</f>
-        <v>2.947500845797113E-2</v>
+        <v>0.35682048360383201</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71411194177977011</v>
+        <v>-0.65968014356891769</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37646974563597335</v>
+        <v>-3.15474587784359E-2</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47046639895599318</v>
+        <v>-0.64479681012038981</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85429751144419352</v>
+        <v>-0.62598177580964109</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62532242749572431</v>
+        <v>0.57612559526711005</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5812099839127518</v>
+        <v>1.2813602994959916</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73727937006418043</v>
+        <v>-0.35425609786823431</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I19" ca="1" si="1">RAND()*2-0.7</f>
-        <v>1.2080560896814607</v>
+        <v>0.15568910843102457</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.043071693486999</v>
+        <v>-0.10038499048779848</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34088011961079068</v>
+        <v>1.2388580156954447</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79397202346291462</v>
+        <v>0.28711378500874751</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3028168011522743E-2</v>
+        <v>-0.63772579804388374</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98497731849324488</v>
+        <v>2.4122540871459375E-2</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23945267507158929</v>
+        <v>9.9411196215457354E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2505735738066006</v>
+        <v>0.85479771808421656</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2442115726191769</v>
+        <v>1.1321301826798276</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22726692740280297</v>
+        <v>0.1792202728589527</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41249154136580812</v>
+        <v>1.2481183995606386</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66906542739897756</v>
+        <v>-0.10986667946348949</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2588011265564141</v>
+        <v>0.81785227189847487</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54609844638275806</v>
+        <v>1.2714705901485475</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2326544025826012E-2</v>
+        <v>0.11972395897367427</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1038374497534182</v>
+        <v>-0.22424771950029165</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64618112344118761</v>
+        <v>0.97686689542796423</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81159966512280635</v>
+        <v>1.2641727063637358</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19166439936218449</v>
+        <v>0.56182818738531903</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77715144513553325</v>
+        <v>1.216652631910718</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76959553613527332</v>
+        <v>-0.3869059823956924</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2018187083069551</v>
+        <v>0.54235422548920731</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0306691506100099</v>
+        <v>0.30055801463855669</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5056493493186309E-2</v>
+        <v>1.1009370997167882</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25553751455119267</v>
+        <v>0.48502103141025632</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55383105678913847</v>
+        <v>0.38682321016232168</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59279397512666221</v>
+        <v>-0.3981748009700683</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83354621398207795</v>
+        <v>1.1272839567632014</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42703674250591983</v>
+        <v>0.70010902432991395</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84042689226400746</v>
+        <v>-0.56210171617468929</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19013541369983611</v>
+        <v>-0.18494406164593524</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37591550911588079</v>
+        <v>0.4181370362746013</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44657882558868867</v>
+        <v>0.31223269624294003</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76948463918579479</v>
+        <v>0.47478982874748787</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35327366548348449</v>
+        <v>-0.17503033004057578</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88890842198017461</v>
+        <v>-0.36675208606316767</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75515350240418955</v>
+        <v>1.0593471065216966</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41691389035968918</v>
+        <v>1.198225456181343</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37003930951385322</v>
+        <v>0.61164214580487997</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76966629942379616</v>
+        <v>-5.3215068624141937E-2</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63965719216541506</v>
+        <v>-0.28366768835729217</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1346875054041154E-2</v>
+        <v>0.63462102170794554</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37864520438761384</v>
+        <v>0.50117536935545504</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22696235709322932</v>
+        <v>8.8702864125642211E-2</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62584413493655666</v>
+        <v>-0.67928119972969125</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34662371495195399</v>
+        <v>8.6327948303970725E-2</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8420461886544022E-2</v>
+        <v>-0.22538033376545497</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45828281137643967</v>
+        <v>0.22902794444527919</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5732221442094776E-2</v>
+        <v>0.79799757486913414</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6104194774197147E-2</v>
+        <v>0.81995213925005217</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37639401512075832</v>
+        <v>-0.32291631422258726</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33143097927744769</v>
+        <v>0.48045795376950284</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66437458132719396</v>
+        <v>-0.46699264223693304</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2054777968118622</v>
+        <v>0.74022269101859828</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.41450443559761374</v>
+        <v>-6.0165836620416968E-2</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17854982287848475</v>
+        <v>0.58359392531046494</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.9696553777781398E-2</v>
+        <v>8.7006526119003391E-2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31493091420224251</v>
+        <v>-0.34478946177657543</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21896413418547178</v>
+        <v>1.0385023847726895</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42950702634063598</v>
+        <v>-0.31275932784977978</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17749765497102521</v>
+        <v>1.1693004804724636</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.791261589181083E-2</v>
+        <v>1.0683206954631326</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2872294684153101E-2</v>
+        <v>1.0483973081910611</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56848763281429227</v>
+        <v>0.39334989013195876</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32674025263954487</v>
+        <v>0.30057416134445369</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58373312705426295</v>
+        <v>1.1172925565732297</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5285368723337045</v>
+        <v>1.0158563552192066</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13008079430176966</v>
+        <v>0.29472455370556183</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.027863812089266</v>
+        <v>-0.67835354300654194</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4583107839787135</v>
+        <v>-0.17107790138585011</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96591280542416569</v>
+        <v>0.17607165350769782</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51706799610264742</v>
+        <v>-0.34294845746053193</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69407557173123302</v>
+        <v>0.75326075708856166</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8371962880202659E-2</v>
+        <v>-0.61351608411089775</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32640803904711624</v>
+        <v>-0.49906836339002636</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56170174488808011</v>
+        <v>1.1308078291002137</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23415119162879594</v>
+        <v>-0.30894250435028336</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2784023155099058</v>
+        <v>1.2555808716838708</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13394370065892325</v>
+        <v>-0.49476553146064606</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14449904010997461</v>
+        <v>-3.7835008439053741E-2</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42269016665639003</v>
+        <v>0.7113824910780473</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92297693883956633</v>
+        <v>0.15784489591403461</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29446117553411222</v>
+        <v>1.0864579418007492</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66915865577600764</v>
+        <v>-0.56878407660045038</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2082596900670608</v>
+        <v>-0.60391989663413037</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87167543869975717</v>
+        <v>0.47239585838236819</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9063150526549508E-2</v>
+        <v>7.0621478816406125E-2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.423328976294961E-2</v>
+        <v>-0.54327957695594153</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3136834693207069E-2</v>
+        <v>1.094134823605682</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50831543807333479</v>
+        <v>0.11644685028300494</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19821467524103342</v>
+        <v>0.93725494101335505</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88594752986156444</v>
+        <v>0.76069276969697386</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1076838312186592</v>
+        <v>0.23841340809852762</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1870818815124489E-2</v>
+        <v>-0.10366925121916037</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59831241585137773</v>
+        <v>-0.51852407868560446</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76486960704500695</v>
+        <v>1.2286742292975847</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50386428191650245</v>
+        <v>0.219469895297977</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1150071125180885</v>
+        <v>0.58704734166760364</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25194377451587147</v>
+        <v>-0.20030689376138433</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.65090647911808319</v>
+        <v>0.10339879653277806</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.4193333558530528E-2</v>
+        <v>1.0756941433632474</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13724591140445797</v>
+        <v>0.16871462713611152</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71782153497241397</v>
+        <v>-0.3401490565695795</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2165531442660138</v>
+        <v>-3.0589265462064974E-2</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0278206518682431E-4</v>
+        <v>-0.26567900467316852</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.200189584398256</v>
+        <v>0.35836851057922092</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4425113281360051E-2</v>
+        <v>1.2723397514440853</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59652094440983805</v>
+        <v>1.1950174762459527</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9297649428045691E-2</v>
+        <v>-0.66668081221805364</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61049307111020323</v>
+        <v>0.54606178095753144</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2907617249248164</v>
+        <v>0.19354497814986638</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7178053335254377E-2</v>
+        <v>0.59492537825653313</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42935160086157675</v>
+        <v>-6.9139472814167657E-2</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59430233140399813</v>
+        <v>1.298584256970317</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.238702132653833</v>
+        <v>-0.53024320865022778</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24951216542434351</v>
+        <v>1.0375249379682516</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30499829289497948</v>
+        <v>0.70283710221549778</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52232510080640893</v>
+        <v>0.84554627664338455</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78642659781418534</v>
+        <v>-7.3572466056639474E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89236024938602099</v>
+        <v>0.78248048636842449</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4001792003665896</v>
+        <v>1.1574619772327652</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10675367893961374</v>
+        <v>-4.6663136348072287E-2</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1807104236181856</v>
+        <v>-0.13894927024097625</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17951387246532402</v>
+        <v>-0.28213269896708604</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93222145215398688</v>
+        <v>-0.62198380148821664</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2511973801216558</v>
+        <v>-0.69064440087154311</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48004214267151046</v>
+        <v>0.85249434573112781</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.2169935703612076E-2</v>
+        <v>0.13766361638842195</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44585163038815789</v>
+        <v>-0.59635881556030301</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99390938684014962</v>
+        <v>0.37354420312078296</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2155589653704879</v>
+        <v>0.98641133570864548</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30438587697199293</v>
+        <v>0.8252397589179552</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1484722000302705E-2</v>
+        <v>1.0248742650311167</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9081075664335545</v>
+        <v>0.67276045851038924</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56521688081398302</v>
+        <v>0.46635051428007523</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25292718421634208</v>
+        <v>-0.1949298930307215</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40188879258901533</v>
+        <v>0.94799342852106205</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1938258897572569</v>
+        <v>-0.23699109694434983</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0947555421578159</v>
+        <v>1.1549000486326009</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1361259488685325</v>
+        <v>1.2763790956260224</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16655654472155734</v>
+        <v>-0.5681061105637577</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1622299404836962E-2</v>
+        <v>1.2196766572559901</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27231743378392959</v>
+        <v>-7.0350307346421337E-2</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8973898156141651E-4</v>
+        <v>-0.68823024551170664</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2869604287303855</v>
+        <v>0.74284503712007632</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6657497204452627</v>
+        <v>0.47617037656584826</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79949234351699205</v>
+        <v>0.90243178318287343</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52443630346372183</v>
+        <v>0.5649310482581722</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50029645128170097</v>
+        <v>-0.57967547923899754</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43552478299659092</v>
+        <v>-0.42970786070730882</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29246050730437756</v>
+        <v>-0.44786346746966887</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26575507926095376</v>
+        <v>0.32766381237210629</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25202825593851719</v>
+        <v>-0.25013454654410516</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92238265064040981</v>
+        <v>0.1955871013715198</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74509022662483404</v>
+        <v>0.65256579611902765</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9358800526356077</v>
+        <v>0.86019973755687107</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57588021673878442</v>
+        <v>0.97212239685805635</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1721778065866937</v>
+        <v>-0.33447042768293356</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21494745320027997</v>
+        <v>0.37943065515333685</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18064384028670588</v>
+        <v>1.0226341930420271</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6255860317721238E-2</v>
+        <v>-0.6227756739481447</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56697671159875318</v>
+        <v>1.0087139098627851</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/FrancisQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1125" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="5115" yWindow="-15" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="6x6" sheetId="1" r:id="rId1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27:W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,723 +5548,723 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*2-0.7</f>
-        <v>7.9017715354007478E-2</v>
+        <v>-0.56444175895355686</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*2-0.7</f>
-        <v>0.35682048360383201</v>
+        <v>-0.20644039297691785</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65968014356891769</v>
+        <v>0.98913425857932369</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.15474587784359E-2</v>
+        <v>1.2430076318927517</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64479681012038981</v>
+        <v>-0.42041573515330755</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62598177580964109</v>
+        <v>0.77470631463473971</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57612559526711005</v>
+        <v>-0.57857709156611792</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2813602994959916</v>
+        <v>0.8985248300749924</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35425609786823431</v>
+        <v>0.87880695017026955</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I19" ca="1" si="1">RAND()*2-0.7</f>
-        <v>0.15568910843102457</v>
+        <v>-0.15977262026151107</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10038499048779848</v>
+        <v>0.85810416838408377</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2388580156954447</v>
+        <v>0.93313037185130243</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28711378500874751</v>
+        <v>0.72261346771813573</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63772579804388374</v>
+        <v>-0.52561991972901967</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4122540871459375E-2</v>
+        <v>0.50243020753835532</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9411196215457354E-2</v>
+        <v>-0.17252906036080851</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85479771808421656</v>
+        <v>0.31371715109847376</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1321301826798276</v>
+        <v>0.77116115424851084</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1792202728589527</v>
+        <v>0.47043360565626258</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2481183995606386</v>
+        <v>0.72796730401817378</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10986667946348949</v>
+        <v>0.26033997343317261</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81785227189847487</v>
+        <v>-0.31769509555825937</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2714705901485475</v>
+        <v>0.84553725113301148</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11972395897367427</v>
+        <v>1.2068288877299207</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22424771950029165</v>
+        <v>1.0739516628089774</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97686689542796423</v>
+        <v>0.53948149058087025</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2641727063637358</v>
+        <v>-0.48333521763871334</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56182818738531903</v>
+        <v>0.78816813015612208</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.216652631910718</v>
+        <v>-0.54265382883554958</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3869059823956924</v>
+        <v>0.19994225059124626</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54235422548920731</v>
+        <v>1.284462763689006</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30055801463855669</v>
+        <v>0.3137502521437463</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1009370997167882</v>
+        <v>-0.50386277654410061</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48502103141025632</v>
+        <v>1.0030539413932775</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38682321016232168</v>
+        <v>-0.16018006955560571</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3981748009700683</v>
+        <v>-5.4428264442136109E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1272839567632014</v>
+        <v>0.42441705589113332</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70010902432991395</v>
+        <v>0.4270901770474862</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56210171617468929</v>
+        <v>-0.68214998653702974</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18494406164593524</v>
+        <v>1.146361385189784</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4181370362746013</v>
+        <v>1.104151584958426</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31223269624294003</v>
+        <v>0.19228582468295019</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47478982874748787</v>
+        <v>-0.60732461751171107</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17503033004057578</v>
+        <v>-0.11114960326075018</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36675208606316767</v>
+        <v>0.60865333547550637</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0593471065216966</v>
+        <v>-0.19461181521475157</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.198225456181343</v>
+        <v>0.43189157551394719</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61164214580487997</v>
+        <v>1.0030011369143419</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3215068624141937E-2</v>
+        <v>-8.8676498218413835E-2</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28366768835729217</v>
+        <v>0.50191268269250511</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63462102170794554</v>
+        <v>1.1796651994982228</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50117536935545504</v>
+        <v>-0.14200460540124049</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8702864125642211E-2</v>
+        <v>0.92310336121174452</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67928119972969125</v>
+        <v>0.26968005762356095</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6327948303970725E-2</v>
+        <v>0.24635659577406077</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22538033376545497</v>
+        <v>0.81123485277251617</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22902794444527919</v>
+        <v>-0.44961317374297249</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79799757486913414</v>
+        <v>0.44510406810884318</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81995213925005217</v>
+        <v>0.24891983751085434</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32291631422258726</v>
+        <v>-0.56770566068538475</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48045795376950284</v>
+        <v>0.33856939781674789</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46699264223693304</v>
+        <v>0.91717319758625626</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74022269101859828</v>
+        <v>-0.66017322651211408</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0165836620416968E-2</v>
+        <v>0.10341368298742082</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58359392531046494</v>
+        <v>0.11525904000877296</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7006526119003391E-2</v>
+        <v>0.79935938109283322</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34478946177657543</v>
+        <v>-0.44018697787532957</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0385023847726895</v>
+        <v>1.2406285525885603</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31275932784977978</v>
+        <v>0.34824861472457136</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1693004804724636</v>
+        <v>-0.49123216307431972</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0683206954631326</v>
+        <v>-0.11177708387396135</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0483973081910611</v>
+        <v>1.0180507627195043</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39334989013195876</v>
+        <v>-0.40343929839472104</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30057416134445369</v>
+        <v>1.1759498633260508</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1172925565732297</v>
+        <v>-0.39516849717271119</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0158563552192066</v>
+        <v>-0.42409549521195533</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29472455370556183</v>
+        <v>-0.15322047305401432</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67835354300654194</v>
+        <v>0.96127738004601926</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17107790138585011</v>
+        <v>-2.8646232883624556E-2</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17607165350769782</v>
+        <v>0.28484883879434131</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34294845746053193</v>
+        <v>-0.55360946279062584</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75326075708856166</v>
+        <v>0.73921198928478593</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61351608411089775</v>
+        <v>-0.14782572290044005</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49906836339002636</v>
+        <v>0.21439280338699285</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1308078291002137</v>
+        <v>0.32362383786988924</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30894250435028336</v>
+        <v>-5.348617233902786E-2</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2555808716838708</v>
+        <v>0.24782893369227654</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49476553146064606</v>
+        <v>0.45412963821204655</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7835008439053741E-2</v>
+        <v>-0.50483656586079251</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7113824910780473</v>
+        <v>0.54091707755365892</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15784489591403461</v>
+        <v>1.2572508298207719</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0864579418007492</v>
+        <v>0.6920899090831274</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56878407660045038</v>
+        <v>0.38444613935382477</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60391989663413037</v>
+        <v>0.67584742257927921</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47239585838236819</v>
+        <v>0.37757772708052828</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0621478816406125E-2</v>
+        <v>-0.5082090591256283</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54327957695594153</v>
+        <v>-0.16210195740301936</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.094134823605682</v>
+        <v>0.37166608179910909</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11644685028300494</v>
+        <v>0.97347459051731722</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93725494101335505</v>
+        <v>0.99840742198488086</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76069276969697386</v>
+        <v>0.51658514107935738</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23841340809852762</v>
+        <v>1.1193245033519572</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10366925121916037</v>
+        <v>1.2722931334637493</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.51852407868560446</v>
+        <v>0.9944692883068138</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2286742292975847</v>
+        <v>-0.26093759205677536</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.219469895297977</v>
+        <v>0.16600818500301839</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58704734166760364</v>
+        <v>0.40662398249580201</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20030689376138433</v>
+        <v>1.2038000717795849</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10339879653277806</v>
+        <v>1.2105672928895399</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0756941433632474</v>
+        <v>0.91467187412658779</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16871462713611152</v>
+        <v>0.8000424146945424</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3401490565695795</v>
+        <v>0.67930124488308685</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0589265462064974E-2</v>
+        <v>0.37155354703148036</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26567900467316852</v>
+        <v>1.0909192157075023</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35836851057922092</v>
+        <v>0.59144445680366897</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2723397514440853</v>
+        <v>-0.60700002470571102</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1950174762459527</v>
+        <v>0.64625421176154352</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.66668081221805364</v>
+        <v>-0.44891612016975202</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54606178095753144</v>
+        <v>-0.46694647280448764</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19354497814986638</v>
+        <v>0.58059995570902556</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59492537825653313</v>
+        <v>0.46032067831672197</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9139472814167657E-2</v>
+        <v>1.0322745153896089</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.298584256970317</v>
+        <v>1.2480382415773172</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53024320865022778</v>
+        <v>-0.69570418703283199</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0375249379682516</v>
+        <v>-0.28111185597412613</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70283710221549778</v>
+        <v>-0.61259515292424682</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84554627664338455</v>
+        <v>-0.55338117764826733</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.3572466056639474E-2</v>
+        <v>1.2342093037906388</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78248048636842449</v>
+        <v>1.1086994021613468</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1574619772327652</v>
+        <v>0.32777111835107764</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6663136348072287E-2</v>
+        <v>-0.22471511280699907</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13894927024097625</v>
+        <v>0.17361726671137001</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28213269896708604</v>
+        <v>-0.56584020193857043</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62198380148821664</v>
+        <v>0.24955286019041778</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69064440087154311</v>
+        <v>0.54333984056727846</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85249434573112781</v>
+        <v>1.293302356804324</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13766361638842195</v>
+        <v>0.18890505878306096</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59635881556030301</v>
+        <v>0.84806012347247495</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37354420312078296</v>
+        <v>0.96475404418042632</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98641133570864548</v>
+        <v>-5.1627874298707521E-2</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8252397589179552</v>
+        <v>0.55547241095959365</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0248742650311167</v>
+        <v>0.82303824960514005</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67276045851038924</v>
+        <v>3.5885296688252577E-2</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46635051428007523</v>
+        <v>-0.39806249614092781</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1949298930307215</v>
+        <v>0.90058753750591691</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94799342852106205</v>
+        <v>0.30476699144189512</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23699109694434983</v>
+        <v>6.7888264852286939E-2</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1549000486326009</v>
+        <v>0.53322663827855066</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2763790956260224</v>
+        <v>-0.59721165153962974</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5681061105637577</v>
+        <v>0.74621297920225094</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2196766572559901</v>
+        <v>-7.7056150277823088E-2</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0350307346421337E-2</v>
+        <v>1.2489268980807335</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68823024551170664</v>
+        <v>0.29347792360712122</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74284503712007632</v>
+        <v>-0.10953480987086506</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47617037656584826</v>
+        <v>0.50413908395187557</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90243178318287343</v>
+        <v>0.30258923773964619</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5649310482581722</v>
+        <v>1.0069194678502964</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57967547923899754</v>
+        <v>-0.33358817868493484</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42970786070730882</v>
+        <v>0.3173360113210022</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44786346746966887</v>
+        <v>0.24813239543217325</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32766381237210629</v>
+        <v>0.46960308845926124</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25013454654410516</v>
+        <v>1.1702577939565597</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1955871013715198</v>
+        <v>-7.9282921525648975E-2</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65256579611902765</v>
+        <v>-0.21404883263574748</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86019973755687107</v>
+        <v>1.1287706788755258</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97212239685805635</v>
+        <v>-6.5564617228322852E-2</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33447042768293356</v>
+        <v>0.5745781542185231</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37943065515333685</v>
+        <v>-0.43555264263850324</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0226341930420271</v>
+        <v>0.48573629860893863</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6227756739481447</v>
+        <v>-0.44234733693621653</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0087139098627851</v>
+        <v>0.25884622485644115</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/FrancisQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisQRTest.xlsx
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T27" sqref="T27:W31"/>
     </sheetView>
   </sheetViews>
@@ -5548,723 +5548,723 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*2-0.7</f>
-        <v>-0.56444175895355686</v>
+        <v>0.53173262986914116</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*2-0.7</f>
-        <v>-0.20644039297691785</v>
+        <v>0.52713967737936018</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98913425857932369</v>
+        <v>1.2815262107669363</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2430076318927517</v>
+        <v>8.5421740343009978E-2</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42041573515330755</v>
+        <v>0.28414257841892909</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77470631463473971</v>
+        <v>0.35506907750559114</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57857709156611792</v>
+        <v>0.2842867401368887</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8985248300749924</v>
+        <v>-4.0317403277452257E-3</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87880695017026955</v>
+        <v>-0.62957678814169782</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I19" ca="1" si="1">RAND()*2-0.7</f>
-        <v>-0.15977262026151107</v>
+        <v>-0.16484108846613887</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85810416838408377</v>
+        <v>0.63656257816085682</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93313037185130243</v>
+        <v>0.71818448159165094</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72261346771813573</v>
+        <v>0.64897847446035017</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52561991972901967</v>
+        <v>-0.49818996707679619</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50243020753835532</v>
+        <v>1.137663950322731</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17252906036080851</v>
+        <v>1.2360479644033069</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31371715109847376</v>
+        <v>-2.1322541294110042E-2</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77116115424851084</v>
+        <v>0.93448543260781491</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47043360565626258</v>
+        <v>0.84437746593352059</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72796730401817378</v>
+        <v>1.0411496925089103</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26033997343317261</v>
+        <v>0.40941254206924449</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31769509555825937</v>
+        <v>-0.33367757803879705</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84553725113301148</v>
+        <v>0.96142956096985066</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2068288877299207</v>
+        <v>1.0783561874859449</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0739516628089774</v>
+        <v>0.28818260492749737</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53948149058087025</v>
+        <v>0.13615210616965467</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48333521763871334</v>
+        <v>-0.65258974852054408</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78816813015612208</v>
+        <v>0.7042807182308839</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54265382883554958</v>
+        <v>0.56081637770016735</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19994225059124626</v>
+        <v>0.68840215152133033</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.284462763689006</v>
+        <v>0.34238174523710319</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3137502521437463</v>
+        <v>1.1720253978006898</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50386277654410061</v>
+        <v>0.62890041057198998</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0030539413932775</v>
+        <v>0.39558582552919086</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16018006955560571</v>
+        <v>1.1740073361884584</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4428264442136109E-2</v>
+        <v>0.808644027124793</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42441705589113332</v>
+        <v>0.99565700091201936</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4270901770474862</v>
+        <v>0.38982365765561222</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68214998653702974</v>
+        <v>7.9825795779816078E-2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.146361385189784</v>
+        <v>0.5903503453312724</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.104151584958426</v>
+        <v>8.1819035020719522E-2</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19228582468295019</v>
+        <v>0.8650874034618965</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60732461751171107</v>
+        <v>0.19971837851580299</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11114960326075018</v>
+        <v>-0.13525079734620959</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60865333547550637</v>
+        <v>0.40287287270207162</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19461181521475157</v>
+        <v>0.19677937318000627</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43189157551394719</v>
+        <v>0.75853033685767079</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0030011369143419</v>
+        <v>0.55901579517651157</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.8676498218413835E-2</v>
+        <v>6.537048926124811E-2</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50191268269250511</v>
+        <v>1.2613008294686598</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1796651994982228</v>
+        <v>0.91402005126736841</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14200460540124049</v>
+        <v>0.2483726174615033</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92310336121174452</v>
+        <v>0.92847989640701378</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26968005762356095</v>
+        <v>1.2957677259393734</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24635659577406077</v>
+        <v>0.49380246781187598</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81123485277251617</v>
+        <v>-0.20858083104302194</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44961317374297249</v>
+        <v>-0.54399830866754706</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44510406810884318</v>
+        <v>-0.38761439742773929</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24891983751085434</v>
+        <v>0.6191848944655991</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56770566068538475</v>
+        <v>-0.19427824621078038</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33856939781674789</v>
+        <v>-0.39482109167740842</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91717319758625626</v>
+        <v>0.8673567245250231</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66017322651211408</v>
+        <v>1.1124440481292095</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10341368298742082</v>
+        <v>-0.61583022997541681</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11525904000877296</v>
+        <v>1.098959703253765</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79935938109283322</v>
+        <v>-2.9524163773823942E-2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44018697787532957</v>
+        <v>-0.3600799838611155</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2406285525885603</v>
+        <v>-0.64228560420713809</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34824861472457136</v>
+        <v>1.240300204177633</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49123216307431972</v>
+        <v>-1.3988771557791546E-2</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11177708387396135</v>
+        <v>0.23333923902120968</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0180507627195043</v>
+        <v>0.77605508585480165</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40343929839472104</v>
+        <v>0.58619826890358517</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1759498633260508</v>
+        <v>0.11487906878679466</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.39516849717271119</v>
+        <v>2.4017922320512142E-2</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42409549521195533</v>
+        <v>0.15259204176740715</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15322047305401432</v>
+        <v>-0.58749038324708946</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96127738004601926</v>
+        <v>1.0404613241778622</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8646232883624556E-2</v>
+        <v>0.25886136682117122</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28484883879434131</v>
+        <v>1.0300066825570873</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55360946279062584</v>
+        <v>1.1456078114509864</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73921198928478593</v>
+        <v>-1.3196555973761681E-2</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14782572290044005</v>
+        <v>0.96503390763277386</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21439280338699285</v>
+        <v>0.54032217484477685</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32362383786988924</v>
+        <v>0.60850475770395795</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.348617233902786E-2</v>
+        <v>0.98566531321203366</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24782893369227654</v>
+        <v>-0.18462949547490393</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45412963821204655</v>
+        <v>-0.14294439153880334</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50483656586079251</v>
+        <v>-0.31150737480235002</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54091707755365892</v>
+        <v>-0.68124330321990634</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2572508298207719</v>
+        <v>0.25771808806834406</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6920899090831274</v>
+        <v>-0.25119926521753277</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38444613935382477</v>
+        <v>0.69487974757780946</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67584742257927921</v>
+        <v>-0.19241093133489895</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37757772708052828</v>
+        <v>-0.14093165797279772</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5082090591256283</v>
+        <v>0.73187720569271808</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16210195740301936</v>
+        <v>-0.42449654800442471</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37166608179910909</v>
+        <v>0.18672429930792678</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97347459051731722</v>
+        <v>1.0607135531087484</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99840742198488086</v>
+        <v>-0.53831359986420368</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51658514107935738</v>
+        <v>0.67189503003287276</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1193245033519572</v>
+        <v>0.42224734244090967</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2722931334637493</v>
+        <v>0.14115784783612861</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9944692883068138</v>
+        <v>0.12451250631284339</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26093759205677536</v>
+        <v>1.1237580783527503</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16600818500301839</v>
+        <v>0.50170203923111645</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40662398249580201</v>
+        <v>0.46935539220470512</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2038000717795849</v>
+        <v>-0.1795947647437901</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2105672928895399</v>
+        <v>0.42174765335448394</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91467187412658779</v>
+        <v>-0.13777928502522729</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8000424146945424</v>
+        <v>1.1319861056487095</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67930124488308685</v>
+        <v>0.97451303817837176</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37155354703148036</v>
+        <v>-3.8882765681267362E-2</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0909192157075023</v>
+        <v>1.1561369981361773</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59144445680366897</v>
+        <v>0.47731602303027287</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60700002470571102</v>
+        <v>0.20346844205808967</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64625421176154352</v>
+        <v>0.46504798869982311</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44891612016975202</v>
+        <v>-0.10625878747168493</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46694647280448764</v>
+        <v>1.1099203530435169</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58059995570902556</v>
+        <v>0.92455369296543388</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46032067831672197</v>
+        <v>0.48065106542311731</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0322745153896089</v>
+        <v>1.0908921610528881</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2480382415773172</v>
+        <v>0.84764641297751275</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69570418703283199</v>
+        <v>0.80835857959668411</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28111185597412613</v>
+        <v>0.8403995568474949</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61259515292424682</v>
+        <v>0.30002422688376162</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55338117764826733</v>
+        <v>-0.62799041758680008</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2342093037906388</v>
+        <v>-0.22615141160530694</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1086994021613468</v>
+        <v>0.79562428512359484</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32777111835107764</v>
+        <v>-0.61948711241904131</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22471511280699907</v>
+        <v>-0.60647804270407213</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17361726671137001</v>
+        <v>-0.57773794145771995</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56584020193857043</v>
+        <v>0.86119814570905029</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24955286019041778</v>
+        <v>-0.13764336155895207</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54333984056727846</v>
+        <v>0.93324479959088125</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.293302356804324</v>
+        <v>-0.43864330593105572</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18890505878306096</v>
+        <v>8.8811621994588918E-5</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84806012347247495</v>
+        <v>0.55650751401960252</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96475404418042632</v>
+        <v>0.80820445777595573</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1627874298707521E-2</v>
+        <v>0.70100339165873948</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55547241095959365</v>
+        <v>-0.64095400810448533</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82303824960514005</v>
+        <v>-0.30274464293314973</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5885296688252577E-2</v>
+        <v>-4.6020864992482924E-2</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.39806249614092781</v>
+        <v>-0.16778148268228277</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90058753750591691</v>
+        <v>0.9799960427515042</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30476699144189512</v>
+        <v>-0.57397847183778361</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7888264852286939E-2</v>
+        <v>0.35774414203329163</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53322663827855066</v>
+        <v>-0.47547681529813879</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.59721165153962974</v>
+        <v>-0.55461721173628309</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74621297920225094</v>
+        <v>0.24926497849639229</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7056150277823088E-2</v>
+        <v>-0.68884939107887777</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2489268980807335</v>
+        <v>0.31697873071034</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29347792360712122</v>
+        <v>0.75011253033297032</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10953480987086506</v>
+        <v>-0.31465495494666329</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50413908395187557</v>
+        <v>1.2989287766507935</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30258923773964619</v>
+        <v>-1.5953187253874956E-2</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0069194678502964</v>
+        <v>0.35084245957437288</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33358817868493484</v>
+        <v>0.43387233860742502</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3173360113210022</v>
+        <v>0.62380213509284022</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24813239543217325</v>
+        <v>0.85616178187605319</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46960308845926124</v>
+        <v>0.70530348190623493</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1702577939565597</v>
+        <v>-0.23304074656887708</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9282921525648975E-2</v>
+        <v>0.2441387447522152</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21404883263574748</v>
+        <v>1.277969406265111</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1287706788755258</v>
+        <v>0.78944526830408401</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.5564617228322852E-2</v>
+        <v>0.26346295984002532</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5745781542185231</v>
+        <v>-0.4870393000808344</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43555264263850324</v>
+        <v>1.1429336340287026</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48573629860893863</v>
+        <v>0.63851144651014891</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44234733693621653</v>
+        <v>0.98702467158433604</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25884622485644115</v>
+        <v>-0.31860014888847576</v>
       </c>
     </row>
   </sheetData>
